--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_1_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_1_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11727.53365079052</v>
+        <v>11015.26889704505</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058541</v>
+        <v>632041.4518058546</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>3.097658594934726</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="V9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>3.097658594934726</v>
       </c>
     </row>
     <row r="10">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>172.0637335316378</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>169.7098764441366</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>172.8636031342218</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8802695799879</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.74367530294976</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.32438889692364</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7546999762258</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.6409504451651</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.376387674824855</v>
+        <v>9.37638767482494</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>128.5834986229281</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44964351050414</v>
+        <v>80.22081436381711</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82929343736541</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="U12" t="n">
-        <v>59.08630782930755</v>
+        <v>59.08630782930764</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50715706586118</v>
+        <v>62.50715706586126</v>
       </c>
       <c r="W12" t="n">
-        <v>188.4860450762372</v>
+        <v>88.56281972747061</v>
       </c>
       <c r="X12" t="n">
-        <v>39.17115058992954</v>
+        <v>39.17115058992962</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.24252228448455</v>
+        <v>45.24252228448464</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.2894475238664</v>
+        <v>25.28944752386649</v>
       </c>
       <c r="S13" t="n">
-        <v>57.29676508345541</v>
+        <v>57.2967650834555</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61991340433097</v>
+        <v>45.61991340433105</v>
       </c>
       <c r="U13" t="n">
-        <v>110.5147946356656</v>
+        <v>110.5147946356657</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96725133490884</v>
+        <v>66.96725133490892</v>
       </c>
       <c r="W13" t="n">
         <v>112.1689432397943</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77769155870146</v>
+        <v>43.77769155870155</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99950896462735</v>
+        <v>38.99950896462744</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.6303957926863</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.019088411798606</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.880269579988</v>
       </c>
       <c r="I14" t="n">
-        <v>62.87039510700851</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.74367530294984</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.37664323013698</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.32438889692373</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00878260204232</v>
+        <v>71.74191352333891</v>
       </c>
       <c r="V14" t="n">
         <v>142.738019759611</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7546999762259</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6409504451651</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1692,16 +1692,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>122.1157794676808</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>75.18439970043207</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>36.82929343736549</v>
       </c>
       <c r="U15" t="n">
-        <v>59.08630782930764</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="V15" t="n">
         <v>62.50715706586126</v>
@@ -1752,7 +1752,7 @@
         <v>39.17115058992962</v>
       </c>
       <c r="Y15" t="n">
-        <v>188.4860450762372</v>
+        <v>45.24252228448464</v>
       </c>
     </row>
     <row r="16">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63531193256517</v>
+        <v>76.63531193256456</v>
       </c>
       <c r="C17" t="n">
-        <v>52.75356893591066</v>
+        <v>52.75356893591072</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32023119695913</v>
+        <v>40.32023119695918</v>
       </c>
       <c r="E17" t="n">
-        <v>74.026983616368</v>
+        <v>74.02698361636806</v>
       </c>
       <c r="F17" t="n">
-        <v>105.7473211947453</v>
+        <v>105.7473211947454</v>
       </c>
       <c r="G17" t="n">
-        <v>121.3863065040498</v>
+        <v>121.3863065040499</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57010498426081</v>
+        <v>49.57010498426084</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.42785516388386</v>
+        <v>23.42785516388392</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44453538049873</v>
+        <v>40.44453538049879</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33078584943797</v>
+        <v>62.33078584943803</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83363897318173</v>
+        <v>84.83363897318179</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>60.95925448199407</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1932,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,16 +1965,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="T18" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>181.1522660781015</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2096,7 +2096,7 @@
         <v>121.3863065040499</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57010498426087</v>
+        <v>49.57010498426084</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47830382393113</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="V21" t="n">
-        <v>48.22235809388135</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>40.0627873606166</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
     </row>
     <row r="22">
@@ -2400,13 +2400,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>90.27298448165283</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>188.4860450762374</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>188.4860450762374</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>58.65395626676037</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>188.4860450762374</v>
       </c>
     </row>
     <row r="25">
@@ -2561,19 +2561,19 @@
         <v>124.2841302900983</v>
       </c>
       <c r="E26" t="n">
-        <v>157.9908827095072</v>
+        <v>157.9908827095071</v>
       </c>
       <c r="F26" t="n">
         <v>189.7112202878845</v>
       </c>
       <c r="G26" t="n">
-        <v>205.350205597189</v>
+        <v>205.3502055971889</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5340040774</v>
+        <v>133.5340040773999</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52412960442049</v>
+        <v>27.52412960442047</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03037772754897</v>
+        <v>14.03037772754894</v>
       </c>
       <c r="T26" t="n">
-        <v>8.978123394335711</v>
+        <v>8.978123394335682</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66251709945431</v>
+        <v>36.66251709945428</v>
       </c>
       <c r="V26" t="n">
         <v>107.391754257023</v>
@@ -2637,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.483027934777481</v>
+        <v>204.7742546959807</v>
       </c>
       <c r="U27" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16089156327325</v>
+        <v>27.16089156327322</v>
       </c>
       <c r="W27" t="n">
-        <v>53.2165542248826</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>102.6083870041668</v>
+        <v>3.824885087341585</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.896256781896625</v>
+        <v>9.896256781896597</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95049958086749</v>
+        <v>21.95049958086746</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27364790174304</v>
+        <v>10.27364790174301</v>
       </c>
       <c r="U28" t="n">
-        <v>75.16852913307767</v>
+        <v>75.16852913307764</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62098583232091</v>
+        <v>31.62098583232088</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82267773720633</v>
+        <v>76.82267773720631</v>
       </c>
       <c r="X28" t="n">
-        <v>8.431426056113537</v>
+        <v>8.431426056113509</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.653243462039427</v>
+        <v>3.653243462039399</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2795,13 @@
         <v>136.7174680290498</v>
       </c>
       <c r="D29" t="n">
-        <v>124.2841302900982</v>
+        <v>124.2841302900983</v>
       </c>
       <c r="E29" t="n">
         <v>157.9908827095071</v>
       </c>
       <c r="F29" t="n">
-        <v>189.7112202878844</v>
+        <v>189.7112202878845</v>
       </c>
       <c r="G29" t="n">
         <v>205.3502055971889</v>
@@ -2810,7 +2810,7 @@
         <v>133.5340040773999</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52412960442044</v>
+        <v>27.52412960442048</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03037772754891</v>
+        <v>14.03037772754894</v>
       </c>
       <c r="T29" t="n">
-        <v>8.978123394335663</v>
+        <v>8.978123394335693</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66251709945425</v>
+        <v>36.66251709945428</v>
       </c>
       <c r="V29" t="n">
         <v>107.391754257023</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4084344736378</v>
+        <v>124.4084344736379</v>
       </c>
       <c r="X29" t="n">
         <v>146.2946849425771</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.7975380663208</v>
+        <v>168.7975380663209</v>
       </c>
     </row>
     <row r="30">
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>11.69981940115809</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T30" t="n">
-        <v>1.483027934777424</v>
+        <v>1.483027934777453</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74004232671956</v>
+        <v>23.74004232671959</v>
       </c>
       <c r="V30" t="n">
-        <v>27.1608915632732</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.21655422488254</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>3.824885087341585</v>
       </c>
       <c r="Y30" t="n">
-        <v>90.7527034209848</v>
+        <v>9.896256781896597</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95049958086743</v>
+        <v>21.95049958086746</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27364790174298</v>
+        <v>10.27364790174301</v>
       </c>
       <c r="U31" t="n">
-        <v>75.16852913307761</v>
+        <v>75.16852913307764</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62098583232086</v>
+        <v>31.62098583232088</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82267773720628</v>
+        <v>76.82267773720631</v>
       </c>
       <c r="X31" t="n">
-        <v>8.43142605611348</v>
+        <v>8.431426056113509</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.65324346203937</v>
+        <v>3.653243462039399</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.6893265664837</v>
+        <v>159.6893265664838</v>
       </c>
       <c r="C32" t="n">
-        <v>135.8075835698292</v>
+        <v>135.8075835698293</v>
       </c>
       <c r="D32" t="n">
         <v>123.3742458308777</v>
       </c>
       <c r="E32" t="n">
-        <v>157.0809982502865</v>
+        <v>157.0809982502866</v>
       </c>
       <c r="F32" t="n">
         <v>188.8013358286639</v>
       </c>
       <c r="G32" t="n">
-        <v>204.4403211379683</v>
+        <v>204.4403211379684</v>
       </c>
       <c r="H32" t="n">
-        <v>132.6241196181793</v>
+        <v>132.6241196181794</v>
       </c>
       <c r="I32" t="n">
-        <v>26.61424514519987</v>
+        <v>26.61424514519993</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.12049326832835</v>
+        <v>13.1204932683284</v>
       </c>
       <c r="T32" t="n">
-        <v>8.06823893511509</v>
+        <v>8.068238935115147</v>
       </c>
       <c r="U32" t="n">
-        <v>35.75263264023368</v>
+        <v>35.75263264023374</v>
       </c>
       <c r="V32" t="n">
-        <v>106.4818697978024</v>
+        <v>106.4818697978025</v>
       </c>
       <c r="W32" t="n">
         <v>123.4985500144173</v>
       </c>
       <c r="X32" t="n">
-        <v>145.3848004833565</v>
+        <v>145.3848004833566</v>
       </c>
       <c r="Y32" t="n">
         <v>167.8876536071003</v>
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>145.7221014012506</v>
+        <v>47.75844952150702</v>
       </c>
       <c r="T33" t="n">
-        <v>0.5731434755568603</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U33" t="n">
-        <v>22.830157867499</v>
+        <v>22.83015786749906</v>
       </c>
       <c r="V33" t="n">
-        <v>26.25100710405263</v>
+        <v>26.25100710405269</v>
       </c>
       <c r="W33" t="n">
-        <v>52.30666976566198</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>2.915000628120993</v>
+        <v>2.915000628121049</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.986372322676004</v>
+        <v>8.986372322676061</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.04061512164687</v>
+        <v>21.04061512164692</v>
       </c>
       <c r="T34" t="n">
-        <v>9.363763442522421</v>
+        <v>9.363763442522478</v>
       </c>
       <c r="U34" t="n">
-        <v>74.25864467385705</v>
+        <v>74.25864467385711</v>
       </c>
       <c r="V34" t="n">
-        <v>30.71110137310029</v>
+        <v>30.71110137310035</v>
       </c>
       <c r="W34" t="n">
-        <v>75.91279327798571</v>
+        <v>75.91279327798577</v>
       </c>
       <c r="X34" t="n">
-        <v>7.521541596892916</v>
+        <v>7.521541596892973</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.743359002818806</v>
+        <v>2.743359002818863</v>
       </c>
     </row>
     <row r="35">
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.873689458423161</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3396,22 +3396,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>123.8039046309993</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>115.7548164606099</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,13 +3588,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>33.50771032472294</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>260.4612548573207</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>183.6979627074163</v>
       </c>
     </row>
     <row r="40">
@@ -3743,19 +3743,19 @@
         <v>109.1933384246293</v>
       </c>
       <c r="D41" t="n">
-        <v>96.7600006856778</v>
+        <v>96.76000068567774</v>
       </c>
       <c r="E41" t="n">
-        <v>130.4667531050867</v>
+        <v>130.4667531050866</v>
       </c>
       <c r="F41" t="n">
-        <v>162.187090683464</v>
+        <v>162.1870906834639</v>
       </c>
       <c r="G41" t="n">
-        <v>177.8260759927685</v>
+        <v>177.8260759927684</v>
       </c>
       <c r="H41" t="n">
-        <v>106.0098744729795</v>
+        <v>106.0098744729794</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.138387495033818</v>
+        <v>9.138387495033761</v>
       </c>
       <c r="V41" t="n">
-        <v>79.86762465260253</v>
+        <v>79.86762465260247</v>
       </c>
       <c r="W41" t="n">
-        <v>96.8843048692174</v>
+        <v>96.88430486921735</v>
       </c>
       <c r="X41" t="n">
         <v>118.7705553381566</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.2734084619004</v>
+        <v>141.2734084619003</v>
       </c>
     </row>
     <row r="42">
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3831,13 +3831,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>100.3277585967366</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>71.6927535909709</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,19 +3867,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69242462046205</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.64439952865717</v>
+        <v>47.64439952865711</v>
       </c>
       <c r="V43" t="n">
-        <v>4.096856227900417</v>
+        <v>4.096856227900361</v>
       </c>
       <c r="W43" t="n">
-        <v>49.29854813278584</v>
+        <v>49.29854813278578</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,22 +3977,22 @@
         <v>133.0750814212838</v>
       </c>
       <c r="C44" t="n">
-        <v>109.1933384246293</v>
+        <v>109.1933384246296</v>
       </c>
       <c r="D44" t="n">
-        <v>96.7600006856778</v>
+        <v>96.76000068567774</v>
       </c>
       <c r="E44" t="n">
-        <v>130.4667531050867</v>
+        <v>130.4667531050866</v>
       </c>
       <c r="F44" t="n">
-        <v>162.187090683464</v>
+        <v>162.1870906834639</v>
       </c>
       <c r="G44" t="n">
-        <v>177.8260759927685</v>
+        <v>177.8260759927684</v>
       </c>
       <c r="H44" t="n">
-        <v>106.0098744729795</v>
+        <v>106.0098744729794</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.138387495033818</v>
+        <v>9.138387495033761</v>
       </c>
       <c r="V44" t="n">
-        <v>79.86762465260253</v>
+        <v>79.86762465260247</v>
       </c>
       <c r="W44" t="n">
-        <v>96.8843048692174</v>
+        <v>96.88430486921735</v>
       </c>
       <c r="X44" t="n">
         <v>118.7705553381566</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.2734084619004</v>
+        <v>141.2734084619003</v>
       </c>
     </row>
     <row r="45">
@@ -4059,13 +4059,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4107,19 +4107,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>109.4531014416532</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>110.1832175689925</v>
       </c>
       <c r="W45" t="n">
-        <v>25.69242462046211</v>
+        <v>25.69242462046205</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.64439952865717</v>
+        <v>47.64439952865711</v>
       </c>
       <c r="V46" t="n">
-        <v>4.096856227900417</v>
+        <v>4.096856227900361</v>
       </c>
       <c r="W46" t="n">
-        <v>49.29854813278584</v>
+        <v>49.29854813278578</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.962690994954155</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="C9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="D9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="E9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="F9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="G9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="H9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="I9" t="n">
         <v>0.2813495544899843</v>
@@ -4884,19 +4884,19 @@
         <v>0.2813495544899843</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45619840956866</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="L9" t="n">
-        <v>6.937899146382215</v>
+        <v>3.763050291303539</v>
       </c>
       <c r="M9" t="n">
-        <v>10.41959988319577</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="N9" t="n">
+        <v>7.104076250872104</v>
+      </c>
+      <c r="O9" t="n">
         <v>10.58577698768566</v>
-      </c>
-      <c r="O9" t="n">
-        <v>14.06747772449921</v>
       </c>
       <c r="P9" t="n">
         <v>14.06747772449921</v>
@@ -4908,25 +4908,25 @@
         <v>10.51508435972668</v>
       </c>
       <c r="S9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="T9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="U9" t="n">
-        <v>10.51508435972668</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="V9" t="n">
-        <v>6.962690994954155</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="W9" t="n">
-        <v>6.962690994954155</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="X9" t="n">
-        <v>6.962690994954155</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.962690994954155</v>
+        <v>0.2813495544899843</v>
       </c>
     </row>
     <row r="10">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>530.890883157374</v>
+        <v>380.0785282631283</v>
       </c>
       <c r="C11" t="n">
-        <v>357.0891321153156</v>
+        <v>380.0785282631283</v>
       </c>
       <c r="D11" t="n">
-        <v>357.0891321153156</v>
+        <v>380.0785282631283</v>
       </c>
       <c r="E11" t="n">
-        <v>185.6650144949757</v>
+        <v>189.6885837416766</v>
       </c>
       <c r="F11" t="n">
-        <v>185.6650144949757</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G11" t="n">
-        <v>185.6650144949757</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H11" t="n">
         <v>15.07888360609898</v>
@@ -5042,49 +5042,49 @@
         <v>15.07888360609898</v>
       </c>
       <c r="K11" t="n">
-        <v>15.07888360609898</v>
+        <v>184.7715035048723</v>
       </c>
       <c r="L11" t="n">
-        <v>201.6800682315738</v>
+        <v>231.4826618439087</v>
       </c>
       <c r="M11" t="n">
-        <v>380.7418110539993</v>
+        <v>312.333785457254</v>
       </c>
       <c r="N11" t="n">
-        <v>567.3429956794741</v>
+        <v>470.7843166479637</v>
       </c>
       <c r="O11" t="n">
-        <v>753.944180304949</v>
+        <v>504.9946117247459</v>
       </c>
       <c r="P11" t="n">
-        <v>753.944180304949</v>
+        <v>666.4050806852708</v>
       </c>
       <c r="Q11" t="n">
         <v>753.944180304949</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0313769686361</v>
+        <v>753.944180304949</v>
       </c>
       <c r="S11" t="n">
-        <v>737.0313769686361</v>
+        <v>753.944180304949</v>
       </c>
       <c r="T11" t="n">
-        <v>692.2592669717435</v>
+        <v>753.944180304949</v>
       </c>
       <c r="U11" t="n">
-        <v>692.2592669717435</v>
+        <v>753.944180304949</v>
       </c>
       <c r="V11" t="n">
-        <v>692.2592669717435</v>
+        <v>753.944180304949</v>
       </c>
       <c r="W11" t="n">
-        <v>530.890883157374</v>
+        <v>753.944180304949</v>
       </c>
       <c r="X11" t="n">
-        <v>530.890883157374</v>
+        <v>570.4684727845801</v>
       </c>
       <c r="Y11" t="n">
-        <v>530.890883157374</v>
+        <v>380.0785282631283</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>304.6794128365756</v>
+        <v>184.9776985502942</v>
       </c>
       <c r="C12" t="n">
-        <v>295.2083141751364</v>
+        <v>175.5065998888549</v>
       </c>
       <c r="D12" t="n">
-        <v>295.2083141751364</v>
+        <v>175.5065998888549</v>
       </c>
       <c r="E12" t="n">
-        <v>295.2083141751364</v>
+        <v>175.5065998888549</v>
       </c>
       <c r="F12" t="n">
-        <v>165.3259923337948</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G12" t="n">
         <v>15.07888360609898</v>
@@ -5145,25 +5145,25 @@
         <v>753.944180304949</v>
       </c>
       <c r="S12" t="n">
-        <v>740.3586818094902</v>
+        <v>672.9130546849317</v>
       </c>
       <c r="T12" t="n">
-        <v>703.1573753071009</v>
+        <v>482.5231101634799</v>
       </c>
       <c r="U12" t="n">
-        <v>643.4742360855781</v>
+        <v>422.839970941957</v>
       </c>
       <c r="V12" t="n">
-        <v>580.3356935948093</v>
+        <v>359.7014284511881</v>
       </c>
       <c r="W12" t="n">
-        <v>389.9457490733575</v>
+        <v>270.2440347870763</v>
       </c>
       <c r="X12" t="n">
-        <v>350.3789302956509</v>
+        <v>230.6772160093696</v>
       </c>
       <c r="Y12" t="n">
-        <v>304.6794128365756</v>
+        <v>184.9776985502942</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.59847835882622</v>
+        <v>15.59847835882614</v>
       </c>
       <c r="C13" t="n">
-        <v>15.59847835882622</v>
+        <v>27.16621540761908</v>
       </c>
       <c r="D13" t="n">
-        <v>48.22800082166827</v>
+        <v>59.79573787046105</v>
       </c>
       <c r="E13" t="n">
-        <v>84.32896723261118</v>
+        <v>59.79573787046105</v>
       </c>
       <c r="F13" t="n">
-        <v>101.700273804463</v>
+        <v>98.61847068524443</v>
       </c>
       <c r="G13" t="n">
-        <v>101.700273804463</v>
+        <v>98.61847068524443</v>
       </c>
       <c r="H13" t="n">
-        <v>101.700273804463</v>
+        <v>110.8124184778036</v>
       </c>
       <c r="I13" t="n">
-        <v>114.8553538152046</v>
+        <v>123.9674984885451</v>
       </c>
       <c r="J13" t="n">
-        <v>114.8553538152046</v>
+        <v>123.9674984885451</v>
       </c>
       <c r="K13" t="n">
-        <v>224.8528215474672</v>
+        <v>171.1033482782196</v>
       </c>
       <c r="L13" t="n">
-        <v>369.3787771534363</v>
+        <v>171.1033482782196</v>
       </c>
       <c r="M13" t="n">
-        <v>520.7701116317054</v>
+        <v>171.1033482782196</v>
       </c>
       <c r="N13" t="n">
-        <v>520.7701116317054</v>
+        <v>331.1045263065716</v>
       </c>
       <c r="O13" t="n">
-        <v>520.7701116317054</v>
+        <v>470.3568865385322</v>
       </c>
       <c r="P13" t="n">
-        <v>520.7701116317054</v>
+        <v>470.3568865385322</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7701116317054</v>
+        <v>520.770111631706</v>
       </c>
       <c r="R13" t="n">
-        <v>495.2252151429514</v>
+        <v>495.225215142952</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3496948566328</v>
+        <v>437.3496948566333</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2689742461975</v>
+        <v>391.2689742461979</v>
       </c>
       <c r="U13" t="n">
-        <v>279.637868553606</v>
+        <v>279.6378685536063</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9941803365263</v>
+        <v>211.9941803365266</v>
       </c>
       <c r="W13" t="n">
-        <v>98.69221746804729</v>
+        <v>98.69221746804746</v>
       </c>
       <c r="X13" t="n">
-        <v>54.47232700471247</v>
+        <v>54.47232700471255</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07888360609898</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>80.62381645337834</v>
+        <v>537.297783049444</v>
       </c>
       <c r="C14" t="n">
-        <v>80.62381645337834</v>
+        <v>537.297783049444</v>
       </c>
       <c r="D14" t="n">
-        <v>80.62381645337834</v>
+        <v>376.0549590164273</v>
       </c>
       <c r="E14" t="n">
-        <v>80.62381645337834</v>
+        <v>185.6650144949756</v>
       </c>
       <c r="F14" t="n">
-        <v>80.62381645337834</v>
+        <v>185.6650144949756</v>
       </c>
       <c r="G14" t="n">
-        <v>78.58433320913788</v>
+        <v>185.6650144949756</v>
       </c>
       <c r="H14" t="n">
-        <v>78.58433320913788</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I14" t="n">
         <v>15.07888360609898</v>
@@ -5282,46 +5282,46 @@
         <v>184.7715035048723</v>
       </c>
       <c r="L14" t="n">
-        <v>231.4826618439087</v>
+        <v>371.3726881303472</v>
       </c>
       <c r="M14" t="n">
-        <v>312.333785457254</v>
+        <v>452.2238117436925</v>
       </c>
       <c r="N14" t="n">
-        <v>498.9349700827289</v>
+        <v>567.3429956794741</v>
       </c>
       <c r="O14" t="n">
-        <v>533.1452651595112</v>
+        <v>753.944180304949</v>
       </c>
       <c r="P14" t="n">
-        <v>694.555734120036</v>
+        <v>753.944180304949</v>
       </c>
       <c r="Q14" t="n">
         <v>753.944180304949</v>
       </c>
       <c r="R14" t="n">
-        <v>737.031376968636</v>
+        <v>753.944180304949</v>
       </c>
       <c r="S14" t="n">
-        <v>687.1559797664777</v>
+        <v>753.944180304949</v>
       </c>
       <c r="T14" t="n">
-        <v>642.383869769585</v>
+        <v>753.944180304949</v>
       </c>
       <c r="U14" t="n">
-        <v>569.6477257271179</v>
+        <v>681.477600988445</v>
       </c>
       <c r="V14" t="n">
-        <v>425.4679077881168</v>
+        <v>537.297783049444</v>
       </c>
       <c r="W14" t="n">
-        <v>264.0995239737472</v>
+        <v>537.297783049444</v>
       </c>
       <c r="X14" t="n">
-        <v>80.62381645337834</v>
+        <v>537.297783049444</v>
       </c>
       <c r="Y14" t="n">
-        <v>80.62381645337834</v>
+        <v>537.297783049444</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>260.9215366315387</v>
+        <v>274.9051583939862</v>
       </c>
       <c r="C15" t="n">
-        <v>251.4504379700994</v>
+        <v>265.4340597325469</v>
       </c>
       <c r="D15" t="n">
-        <v>251.4504379700994</v>
+        <v>265.4340597325469</v>
       </c>
       <c r="E15" t="n">
-        <v>251.4504379700994</v>
+        <v>142.0847875429703</v>
       </c>
       <c r="F15" t="n">
-        <v>91.02272168734351</v>
+        <v>142.0847875429703</v>
       </c>
       <c r="G15" t="n">
-        <v>15.07888360609898</v>
+        <v>142.0847875429703</v>
       </c>
       <c r="H15" t="n">
         <v>15.07888360609898</v>
@@ -5388,19 +5388,19 @@
         <v>703.1573753071008</v>
       </c>
       <c r="U15" t="n">
-        <v>643.4742360855779</v>
+        <v>512.767430785649</v>
       </c>
       <c r="V15" t="n">
-        <v>580.335693594809</v>
+        <v>449.6288882948801</v>
       </c>
       <c r="W15" t="n">
-        <v>490.8782999306972</v>
+        <v>360.1714946307683</v>
       </c>
       <c r="X15" t="n">
-        <v>451.3114811529905</v>
+        <v>320.6046758530616</v>
       </c>
       <c r="Y15" t="n">
-        <v>260.9215366315387</v>
+        <v>274.9051583939862</v>
       </c>
     </row>
     <row r="16">
@@ -5413,43 +5413,43 @@
         <v>15.59847835882614</v>
       </c>
       <c r="C16" t="n">
-        <v>15.59847835882614</v>
+        <v>27.16621540761908</v>
       </c>
       <c r="D16" t="n">
-        <v>15.59847835882614</v>
+        <v>59.79573787046105</v>
       </c>
       <c r="E16" t="n">
-        <v>51.69944476976897</v>
+        <v>59.79573787046105</v>
       </c>
       <c r="F16" t="n">
-        <v>51.69944476976897</v>
+        <v>98.61847068524443</v>
       </c>
       <c r="G16" t="n">
-        <v>61.04599627589852</v>
+        <v>107.965022191374</v>
       </c>
       <c r="H16" t="n">
-        <v>73.23994406845772</v>
+        <v>120.1589699839332</v>
       </c>
       <c r="I16" t="n">
-        <v>73.23994406845772</v>
+        <v>120.1589699839332</v>
       </c>
       <c r="J16" t="n">
-        <v>73.23994406845772</v>
+        <v>120.1589699839332</v>
       </c>
       <c r="K16" t="n">
-        <v>183.2374118007202</v>
+        <v>120.1589699839332</v>
       </c>
       <c r="L16" t="n">
-        <v>183.2374118007202</v>
+        <v>120.1589699839332</v>
       </c>
       <c r="M16" t="n">
-        <v>334.6287462789892</v>
+        <v>271.5503044622022</v>
       </c>
       <c r="N16" t="n">
-        <v>334.6287462789892</v>
+        <v>331.1045263065716</v>
       </c>
       <c r="O16" t="n">
-        <v>351.8936825085033</v>
+        <v>470.3568865385322</v>
       </c>
       <c r="P16" t="n">
         <v>470.3568865385322</v>
@@ -5492,19 +5492,19 @@
         <v>463.3662739417496</v>
       </c>
       <c r="C17" t="n">
-        <v>410.0798406731531</v>
+        <v>410.0798406731529</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3523344135983</v>
+        <v>369.3523344135982</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5776034879741</v>
+        <v>294.5776034879739</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7621275336858</v>
+        <v>187.7621275336856</v>
       </c>
       <c r="G17" t="n">
-        <v>65.14969672151395</v>
+        <v>65.14969672151398</v>
       </c>
       <c r="H17" t="n">
         <v>15.07888360609898</v>
@@ -5519,46 +5519,46 @@
         <v>15.07888360609898</v>
       </c>
       <c r="L17" t="n">
-        <v>61.79004194513539</v>
+        <v>201.6800682315738</v>
       </c>
       <c r="M17" t="n">
-        <v>184.3605816347738</v>
+        <v>282.5311918449191</v>
       </c>
       <c r="N17" t="n">
-        <v>259.6775249384359</v>
+        <v>357.8481351485812</v>
       </c>
       <c r="O17" t="n">
-        <v>446.2787095639108</v>
+        <v>544.449319774056</v>
       </c>
       <c r="P17" t="n">
-        <v>446.2787095639108</v>
+        <v>610.4740762111992</v>
       </c>
       <c r="Q17" t="n">
-        <v>632.8798941893856</v>
+        <v>610.4740762111992</v>
       </c>
       <c r="R17" t="n">
-        <v>632.8798941893856</v>
+        <v>610.4740762111992</v>
       </c>
       <c r="S17" t="n">
-        <v>632.8798941893856</v>
+        <v>679.7082623631335</v>
       </c>
       <c r="T17" t="n">
-        <v>707.115812131201</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="U17" t="n">
-        <v>753.944180304949</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="V17" t="n">
-        <v>730.2796801394097</v>
+        <v>730.2796801394095</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4266140985019</v>
+        <v>689.4266140985017</v>
       </c>
       <c r="X17" t="n">
-        <v>626.4662243515949</v>
+        <v>626.4662243515945</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.7756799342396</v>
+        <v>540.7756799342391</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>175.5065998888549</v>
+        <v>195.0931752439108</v>
       </c>
       <c r="C18" t="n">
-        <v>175.5065998888549</v>
+        <v>195.0931752439108</v>
       </c>
       <c r="D18" t="n">
-        <v>175.5065998888549</v>
+        <v>195.0931752439108</v>
       </c>
       <c r="E18" t="n">
-        <v>175.5065998888549</v>
+        <v>195.0931752439108</v>
       </c>
       <c r="F18" t="n">
-        <v>15.07888360609898</v>
+        <v>195.0931752439108</v>
       </c>
       <c r="G18" t="n">
-        <v>15.07888360609898</v>
+        <v>195.0931752439108</v>
       </c>
       <c r="H18" t="n">
-        <v>15.07888360609898</v>
+        <v>68.08727130703952</v>
       </c>
       <c r="I18" t="n">
-        <v>15.07888360609898</v>
+        <v>68.08727130703952</v>
       </c>
       <c r="J18" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="K18" t="n">
-        <v>53.03690762936456</v>
+        <v>53.03690762936446</v>
       </c>
       <c r="L18" t="n">
         <v>170.3626975743616</v>
@@ -5604,40 +5604,40 @@
         <v>352.0310247576277</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6322093831027</v>
+        <v>538.6322093831026</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3253369263739</v>
+        <v>670.3253369263737</v>
       </c>
       <c r="P18" t="n">
-        <v>753.944180304949</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.944180304949</v>
+        <v>747.0010596398749</v>
       </c>
       <c r="R18" t="n">
-        <v>617.8614934590252</v>
+        <v>747.0010596398749</v>
       </c>
       <c r="S18" t="n">
-        <v>617.8614934590252</v>
+        <v>556.6111151184232</v>
       </c>
       <c r="T18" t="n">
-        <v>427.4715489375734</v>
+        <v>556.6111151184232</v>
       </c>
       <c r="U18" t="n">
-        <v>427.4715489375734</v>
+        <v>556.6111151184232</v>
       </c>
       <c r="V18" t="n">
-        <v>427.4715489375734</v>
+        <v>556.6111151184232</v>
       </c>
       <c r="W18" t="n">
-        <v>427.4715489375734</v>
+        <v>373.6290281708459</v>
       </c>
       <c r="X18" t="n">
-        <v>427.4715489375734</v>
+        <v>373.6290281708459</v>
       </c>
       <c r="Y18" t="n">
-        <v>237.0816044161216</v>
+        <v>373.6290281708459</v>
       </c>
     </row>
     <row r="19">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3662739417492</v>
+        <v>463.3662739417493</v>
       </c>
       <c r="C20" t="n">
         <v>410.0798406731526</v>
@@ -5735,55 +5735,55 @@
         <v>369.3523344135979</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5776034879734</v>
+        <v>294.5776034879736</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7621275336851</v>
+        <v>187.7621275336853</v>
       </c>
       <c r="G20" t="n">
-        <v>65.149696721514</v>
+        <v>65.14969672151398</v>
       </c>
       <c r="H20" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="I20" t="n">
-        <v>15.07888360609898</v>
+        <v>70.95425539993039</v>
       </c>
       <c r="J20" t="n">
-        <v>201.6800682315739</v>
+        <v>70.95425539993039</v>
       </c>
       <c r="K20" t="n">
-        <v>201.6800682315739</v>
+        <v>97.90494790927198</v>
       </c>
       <c r="L20" t="n">
-        <v>255.9003475701213</v>
+        <v>144.6161062483084</v>
       </c>
       <c r="M20" t="n">
-        <v>336.7514711834666</v>
+        <v>225.4672298616536</v>
       </c>
       <c r="N20" t="n">
-        <v>412.0684144871287</v>
+        <v>412.0684144871285</v>
       </c>
       <c r="O20" t="n">
-        <v>446.2787095639109</v>
+        <v>446.2787095639108</v>
       </c>
       <c r="P20" t="n">
-        <v>632.8798941893858</v>
+        <v>446.2787095639108</v>
       </c>
       <c r="Q20" t="n">
-        <v>632.8798941893858</v>
+        <v>632.8798941893856</v>
       </c>
       <c r="R20" t="n">
-        <v>632.8798941893858</v>
+        <v>632.8798941893856</v>
       </c>
       <c r="S20" t="n">
-        <v>632.8798941893858</v>
+        <v>632.8798941893856</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1158121312012</v>
+        <v>707.115812131201</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9441803049491</v>
+        <v>753.944180304949</v>
       </c>
       <c r="V20" t="n">
         <v>730.2796801394097</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>378.7620963174913</v>
+        <v>325.7537086165507</v>
       </c>
       <c r="C21" t="n">
-        <v>378.7620963174913</v>
+        <v>325.7537086165507</v>
       </c>
       <c r="D21" t="n">
-        <v>378.7620963174913</v>
+        <v>325.7537086165507</v>
       </c>
       <c r="E21" t="n">
-        <v>378.7620963174913</v>
+        <v>325.7537086165507</v>
       </c>
       <c r="F21" t="n">
-        <v>218.3343800347354</v>
+        <v>165.3259923337948</v>
       </c>
       <c r="G21" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H21" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I21" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J21" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="K21" t="n">
-        <v>53.03690762936458</v>
+        <v>53.03690762936469</v>
       </c>
       <c r="L21" t="n">
-        <v>170.3626975743616</v>
+        <v>170.3626975743617</v>
       </c>
       <c r="M21" t="n">
         <v>352.0310247576278</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6322093831028</v>
+        <v>538.6322093831027</v>
       </c>
       <c r="O21" t="n">
         <v>670.3253369263739</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9441803049491</v>
+        <v>753.944180304949</v>
       </c>
       <c r="Q21" t="n">
-        <v>753.9441803049491</v>
+        <v>747.0010596398751</v>
       </c>
       <c r="R21" t="n">
-        <v>617.8614934590253</v>
+        <v>747.0010596398751</v>
       </c>
       <c r="S21" t="n">
-        <v>617.8614934590253</v>
+        <v>747.0010596398751</v>
       </c>
       <c r="T21" t="n">
-        <v>617.8614934590253</v>
+        <v>747.0010596398751</v>
       </c>
       <c r="U21" t="n">
-        <v>617.8614934590253</v>
+        <v>556.6111151184233</v>
       </c>
       <c r="V21" t="n">
-        <v>569.1520408389431</v>
+        <v>556.6111151184233</v>
       </c>
       <c r="W21" t="n">
-        <v>378.7620963174913</v>
+        <v>556.6111151184233</v>
       </c>
       <c r="X21" t="n">
-        <v>378.7620963174913</v>
+        <v>516.1436531380025</v>
       </c>
       <c r="Y21" t="n">
-        <v>378.7620963174913</v>
+        <v>325.7537086165507</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3662739417494</v>
+        <v>463.3662739417499</v>
       </c>
       <c r="C23" t="n">
-        <v>410.0798406731527</v>
+        <v>410.0798406731533</v>
       </c>
       <c r="D23" t="n">
-        <v>369.352334413598</v>
+        <v>369.3523344135986</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5776034879737</v>
+        <v>294.5776034879739</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7621275336854</v>
+        <v>187.7621275336856</v>
       </c>
       <c r="G23" t="n">
-        <v>65.149696721514</v>
+        <v>65.14969672151402</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="I23" t="n">
-        <v>15.07888360609898</v>
+        <v>70.9542553999304</v>
       </c>
       <c r="J23" t="n">
-        <v>201.6800682315739</v>
+        <v>257.5554400254055</v>
       </c>
       <c r="K23" t="n">
-        <v>216.0945778498329</v>
+        <v>257.5554400254055</v>
       </c>
       <c r="L23" t="n">
-        <v>262.8057361888693</v>
+        <v>304.2665983644418</v>
       </c>
       <c r="M23" t="n">
-        <v>343.6568598022146</v>
+        <v>385.1177219777871</v>
       </c>
       <c r="N23" t="n">
-        <v>418.9738031058768</v>
+        <v>460.4346652814492</v>
       </c>
       <c r="O23" t="n">
-        <v>605.5749877313517</v>
+        <v>520.5146275057266</v>
       </c>
       <c r="P23" t="n">
-        <v>605.5749877313517</v>
+        <v>520.5146275057266</v>
       </c>
       <c r="Q23" t="n">
-        <v>605.5749877313517</v>
+        <v>707.1158121312017</v>
       </c>
       <c r="R23" t="n">
-        <v>707.1158121312012</v>
+        <v>707.1158121312017</v>
       </c>
       <c r="S23" t="n">
-        <v>707.1158121312012</v>
+        <v>707.1158121312017</v>
       </c>
       <c r="T23" t="n">
-        <v>707.1158121312012</v>
+        <v>707.1158121312017</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9441803049492</v>
+        <v>753.9441803049497</v>
       </c>
       <c r="V23" t="n">
-        <v>730.2796801394098</v>
+        <v>730.2796801394104</v>
       </c>
       <c r="W23" t="n">
-        <v>689.426614098502</v>
+        <v>689.4266140985026</v>
       </c>
       <c r="X23" t="n">
-        <v>626.4662243515949</v>
+        <v>626.4662243515954</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.7756799342395</v>
+        <v>540.7756799342401</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>427.4715489375735</v>
+        <v>123.5279262691182</v>
       </c>
       <c r="C24" t="n">
-        <v>427.4715489375735</v>
+        <v>123.5279262691182</v>
       </c>
       <c r="D24" t="n">
-        <v>266.6914326986052</v>
+        <v>123.5279262691182</v>
       </c>
       <c r="E24" t="n">
-        <v>175.5065998888549</v>
+        <v>123.5279262691182</v>
       </c>
       <c r="F24" t="n">
-        <v>15.07888360609898</v>
+        <v>123.5279262691182</v>
       </c>
       <c r="G24" t="n">
-        <v>15.07888360609898</v>
+        <v>123.5279262691182</v>
       </c>
       <c r="H24" t="n">
-        <v>15.07888360609898</v>
+        <v>123.5279262691182</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="J24" t="n">
-        <v>15.0788836060992</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="K24" t="n">
-        <v>53.03690762936479</v>
+        <v>53.03690762936458</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3626975743618</v>
+        <v>170.3626975743616</v>
       </c>
       <c r="M24" t="n">
-        <v>352.031024757628</v>
+        <v>352.0310247576277</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6322093831029</v>
+        <v>538.6322093831028</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3253369263741</v>
+        <v>670.325336926374</v>
       </c>
       <c r="P24" t="n">
         <v>753.9441803049492</v>
@@ -6090,28 +6090,28 @@
         <v>753.9441803049492</v>
       </c>
       <c r="R24" t="n">
-        <v>617.8614934590254</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="S24" t="n">
-        <v>617.8614934590254</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="T24" t="n">
-        <v>427.4715489375735</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="U24" t="n">
-        <v>427.4715489375735</v>
+        <v>563.5542357834972</v>
       </c>
       <c r="V24" t="n">
-        <v>427.4715489375735</v>
+        <v>373.1642912620453</v>
       </c>
       <c r="W24" t="n">
-        <v>427.4715489375735</v>
+        <v>313.9178707905701</v>
       </c>
       <c r="X24" t="n">
-        <v>427.4715489375735</v>
+        <v>313.9178707905701</v>
       </c>
       <c r="Y24" t="n">
-        <v>427.4715489375735</v>
+        <v>123.5279262691182</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6203,40 @@
         <v>1020.877441161906</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7789886073105</v>
+        <v>882.7789886073106</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2394630617566</v>
+        <v>757.2394630617567</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6527128501332</v>
+        <v>597.6527128501334</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0252176098458</v>
+        <v>406.0252176098459</v>
       </c>
       <c r="G26" t="n">
-        <v>198.600767511675</v>
+        <v>198.6007675116743</v>
       </c>
       <c r="H26" t="n">
-        <v>63.7179351102609</v>
+        <v>63.71793511026087</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="J26" t="n">
-        <v>171.24992184767</v>
+        <v>171.2499218476705</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9353445940055</v>
+        <v>375.935344594006</v>
       </c>
       <c r="L26" t="n">
-        <v>633.9996519916494</v>
+        <v>633.9996519916501</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2039246636025</v>
+        <v>926.2039246636032</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.874017025872</v>
+        <v>1212.874017025873</v>
       </c>
       <c r="O26" t="n">
         <v>1458.437461161263</v>
@@ -6251,13 +6251,13 @@
         <v>1795.789199734232</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.617101019536</v>
+        <v>1781.617101019535</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.548289510106</v>
+        <v>1772.548289510105</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.515443955102</v>
+        <v>1735.515443955101</v>
       </c>
       <c r="V26" t="n">
         <v>1627.038924503563</v>
@@ -6269,7 +6269,7 @@
         <v>1353.60143014375</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.098866440396</v>
+        <v>1183.098866440395</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>357.1236165164088</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="C27" t="n">
-        <v>357.1236165164088</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="D27" t="n">
-        <v>196.3435002774405</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="E27" t="n">
-        <v>196.3435002774405</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="K27" t="n">
         <v>73.87380801795022</v>
@@ -6333,22 +6333,22 @@
         <v>793.0763328677679</v>
       </c>
       <c r="T27" t="n">
-        <v>791.5783248528411</v>
+        <v>586.2336513566762</v>
       </c>
       <c r="U27" t="n">
-        <v>551.9540100257212</v>
+        <v>346.6093365295564</v>
       </c>
       <c r="V27" t="n">
-        <v>524.5187660224149</v>
+        <v>319.1740925262501</v>
       </c>
       <c r="W27" t="n">
-        <v>470.7646708457657</v>
+        <v>49.7755232565414</v>
       </c>
       <c r="X27" t="n">
-        <v>367.1198354880215</v>
+        <v>45.91200296629737</v>
       </c>
       <c r="Y27" t="n">
-        <v>357.1236165164088</v>
+        <v>35.91578399468465</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91578399468464</v>
+        <v>71.42818159497396</v>
       </c>
       <c r="C28" t="n">
-        <v>82.47632389103971</v>
+        <v>71.42818159497396</v>
       </c>
       <c r="D28" t="n">
-        <v>82.47632389103971</v>
+        <v>71.42818159497396</v>
       </c>
       <c r="E28" t="n">
-        <v>82.47632389103971</v>
+        <v>71.42818159497396</v>
       </c>
       <c r="F28" t="n">
-        <v>82.47632389103971</v>
+        <v>71.42818159497396</v>
       </c>
       <c r="G28" t="n">
-        <v>82.47632389103971</v>
+        <v>71.42818159497396</v>
       </c>
       <c r="H28" t="n">
-        <v>129.663074531161</v>
+        <v>71.42818159497396</v>
       </c>
       <c r="I28" t="n">
-        <v>129.663074531161</v>
+        <v>119.5760644532776</v>
       </c>
       <c r="J28" t="n">
-        <v>221.9770659213086</v>
+        <v>119.5760644532776</v>
       </c>
       <c r="K28" t="n">
-        <v>221.9770659213086</v>
+        <v>119.5760644532776</v>
       </c>
       <c r="L28" t="n">
-        <v>221.9770659213086</v>
+        <v>119.5760644532776</v>
       </c>
       <c r="M28" t="n">
-        <v>221.9770659213086</v>
+        <v>119.5760644532776</v>
       </c>
       <c r="N28" t="n">
-        <v>266.1390261192992</v>
+        <v>119.5760644532776</v>
       </c>
       <c r="O28" t="n">
-        <v>266.1390261192992</v>
+        <v>266.139026119299</v>
       </c>
       <c r="P28" t="n">
-        <v>266.1390261192992</v>
+        <v>266.139026119299</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1390261192992</v>
+        <v>266.139026119299</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1390261192992</v>
+        <v>266.139026119299</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9668043204432</v>
+        <v>243.966804320443</v>
       </c>
       <c r="T28" t="n">
-        <v>233.5893821974704</v>
+        <v>233.5893821974702</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6615749923414</v>
+        <v>157.6615749923413</v>
       </c>
       <c r="V28" t="n">
         <v>125.7211852627243</v>
       </c>
       <c r="W28" t="n">
-        <v>48.12252088170784</v>
+        <v>48.12252088170779</v>
       </c>
       <c r="X28" t="n">
-        <v>39.60592890583558</v>
+        <v>39.60592890583555</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6440,22 @@
         <v>1020.877441161906</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7789886073101</v>
+        <v>882.77898860731</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2394630617563</v>
+        <v>757.2394630617562</v>
       </c>
       <c r="E29" t="n">
-        <v>597.652712850133</v>
+        <v>597.6527128501328</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0252176098456</v>
+        <v>406.0252176098455</v>
       </c>
       <c r="G29" t="n">
-        <v>198.600767511675</v>
+        <v>198.6007675116749</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71793511026098</v>
+        <v>63.71793511026088</v>
       </c>
       <c r="I29" t="n">
         <v>35.91578399468464</v>
@@ -6467,10 +6467,10 @@
         <v>375.9353445940055</v>
       </c>
       <c r="L29" t="n">
-        <v>633.9996519916497</v>
+        <v>633.9996519916492</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2039246636028</v>
+        <v>926.2039246636023</v>
       </c>
       <c r="N29" t="n">
         <v>1212.874017025872</v>
@@ -6491,19 +6491,19 @@
         <v>1781.617101019536</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.548289510106</v>
+        <v>1772.548289510105</v>
       </c>
       <c r="U29" t="n">
         <v>1735.515443955101</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.038924503562</v>
+        <v>1627.038924503563</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.373839176655</v>
+        <v>1501.373839176656</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.601430143749</v>
+        <v>1353.60143014375</v>
       </c>
       <c r="Y29" t="n">
         <v>1183.098866440395</v>
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>196.6959002336529</v>
+        <v>47.73378338979382</v>
       </c>
       <c r="C30" t="n">
-        <v>196.6959002336529</v>
+        <v>47.73378338979382</v>
       </c>
       <c r="D30" t="n">
         <v>35.91578399468464</v>
@@ -6543,13 +6543,13 @@
         <v>35.91578399468464</v>
       </c>
       <c r="K30" t="n">
-        <v>73.87380801795022</v>
+        <v>73.87380801795021</v>
       </c>
       <c r="L30" t="n">
         <v>191.1995979629472</v>
       </c>
       <c r="M30" t="n">
-        <v>372.8679251462134</v>
+        <v>372.8679251462133</v>
       </c>
       <c r="N30" t="n">
         <v>577.7643619459216</v>
@@ -6567,25 +6567,25 @@
         <v>793.0763328677679</v>
       </c>
       <c r="S30" t="n">
-        <v>793.0763328677679</v>
+        <v>599.5496587667121</v>
       </c>
       <c r="T30" t="n">
-        <v>791.5783248528412</v>
+        <v>598.0516507517854</v>
       </c>
       <c r="U30" t="n">
-        <v>767.598484118781</v>
+        <v>574.0718100177252</v>
       </c>
       <c r="V30" t="n">
-        <v>740.1632401154748</v>
+        <v>330.9920919213592</v>
       </c>
       <c r="W30" t="n">
-        <v>686.4091449388258</v>
+        <v>61.59352265165057</v>
       </c>
       <c r="X30" t="n">
-        <v>466.9011505555221</v>
+        <v>57.73000236140655</v>
       </c>
       <c r="Y30" t="n">
-        <v>375.231753160588</v>
+        <v>47.73378338979382</v>
       </c>
     </row>
     <row r="31">
@@ -6598,70 +6598,70 @@
         <v>35.91578399468464</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91578399468464</v>
+        <v>82.47632389103974</v>
       </c>
       <c r="D31" t="n">
-        <v>35.91578399468464</v>
+        <v>150.0986492014439</v>
       </c>
       <c r="E31" t="n">
-        <v>107.0095532531897</v>
+        <v>150.0986492014439</v>
       </c>
       <c r="F31" t="n">
-        <v>180.8250889155352</v>
+        <v>150.0986492014439</v>
       </c>
       <c r="G31" t="n">
-        <v>218.9522754791774</v>
+        <v>150.0986492014439</v>
       </c>
       <c r="H31" t="n">
-        <v>266.1390261192988</v>
+        <v>150.0986492014439</v>
       </c>
       <c r="I31" t="n">
-        <v>266.1390261192988</v>
+        <v>150.0986492014439</v>
       </c>
       <c r="J31" t="n">
-        <v>266.1390261192988</v>
+        <v>150.0986492014439</v>
       </c>
       <c r="K31" t="n">
-        <v>266.1390261192988</v>
+        <v>150.0986492014439</v>
       </c>
       <c r="L31" t="n">
-        <v>266.1390261192988</v>
+        <v>266.139026119299</v>
       </c>
       <c r="M31" t="n">
-        <v>266.1390261192988</v>
+        <v>266.139026119299</v>
       </c>
       <c r="N31" t="n">
-        <v>266.1390261192988</v>
+        <v>266.139026119299</v>
       </c>
       <c r="O31" t="n">
-        <v>266.1390261192988</v>
+        <v>266.139026119299</v>
       </c>
       <c r="P31" t="n">
-        <v>266.1390261192988</v>
+        <v>266.139026119299</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1390261192988</v>
+        <v>266.139026119299</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1390261192988</v>
+        <v>266.139026119299</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9668043204428</v>
+        <v>243.966804320443</v>
       </c>
       <c r="T31" t="n">
-        <v>233.5893821974701</v>
+        <v>233.5893821974702</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6615749923412</v>
+        <v>157.6615749923413</v>
       </c>
       <c r="V31" t="n">
         <v>125.7211852627242</v>
       </c>
       <c r="W31" t="n">
-        <v>48.12252088170772</v>
+        <v>48.12252088170778</v>
       </c>
       <c r="X31" t="n">
-        <v>39.60592890583552</v>
+        <v>39.60592890583555</v>
       </c>
       <c r="Y31" t="n">
         <v>35.91578399468464</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.162565128078</v>
+        <v>1014.162565128079</v>
       </c>
       <c r="C32" t="n">
-        <v>876.9831877848166</v>
+        <v>876.9831877848168</v>
       </c>
       <c r="D32" t="n">
-        <v>752.3627374505967</v>
+        <v>752.3627374505968</v>
       </c>
       <c r="E32" t="n">
-        <v>593.6950624503072</v>
+        <v>593.6950624503073</v>
       </c>
       <c r="F32" t="n">
         <v>402.9866424213538</v>
       </c>
       <c r="G32" t="n">
-        <v>196.4812675345171</v>
+        <v>196.4812675345174</v>
       </c>
       <c r="H32" t="n">
-        <v>62.51751034443695</v>
+        <v>62.51751034443701</v>
       </c>
       <c r="I32" t="n">
         <v>35.63443444019465</v>
@@ -6701,22 +6701,22 @@
         <v>171.8693579078084</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4555662687723</v>
+        <v>377.4555662687721</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4206592810448</v>
+        <v>636.4206592810447</v>
       </c>
       <c r="M32" t="n">
-        <v>929.5257175676261</v>
+        <v>907.6325188659616</v>
       </c>
       <c r="N32" t="n">
-        <v>1217.096595544524</v>
+        <v>1195.20339684286</v>
       </c>
       <c r="O32" t="n">
-        <v>1463.560825294543</v>
+        <v>1441.667626592878</v>
       </c>
       <c r="P32" t="n">
-        <v>1660.864882717258</v>
+        <v>1638.971684015594</v>
       </c>
       <c r="Q32" t="n">
         <v>1762.404372097462</v>
@@ -6728,16 +6728,16 @@
         <v>1768.46869850637</v>
       </c>
       <c r="T32" t="n">
-        <v>1760.318962208274</v>
+        <v>1760.318962208275</v>
       </c>
       <c r="U32" t="n">
         <v>1724.205191864604</v>
       </c>
       <c r="V32" t="n">
-        <v>1616.647747624399</v>
+        <v>1616.6477476244</v>
       </c>
       <c r="W32" t="n">
-        <v>1491.901737508826</v>
+        <v>1491.901737508827</v>
       </c>
       <c r="X32" t="n">
         <v>1345.048403687254</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>352.0526126441023</v>
+        <v>196.4145506791629</v>
       </c>
       <c r="C33" t="n">
-        <v>162.640338377066</v>
+        <v>196.4145506791629</v>
       </c>
       <c r="D33" t="n">
-        <v>162.640338377066</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="E33" t="n">
-        <v>162.640338377066</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="F33" t="n">
-        <v>162.640338377066</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="G33" t="n">
-        <v>162.640338377066</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="H33" t="n">
         <v>35.63443444019465</v>
@@ -6780,19 +6780,19 @@
         <v>35.63443444019465</v>
       </c>
       <c r="K33" t="n">
-        <v>73.59245846346025</v>
+        <v>73.59245846346023</v>
       </c>
       <c r="L33" t="n">
-        <v>190.9182484084573</v>
+        <v>190.9182484084572</v>
       </c>
       <c r="M33" t="n">
         <v>372.5865755917234</v>
       </c>
       <c r="N33" t="n">
-        <v>577.4830123914317</v>
+        <v>577.4830123914315</v>
       </c>
       <c r="O33" t="n">
-        <v>709.1761399347029</v>
+        <v>709.1761399347027</v>
       </c>
       <c r="P33" t="n">
         <v>792.794983313278</v>
@@ -6804,25 +6804,25 @@
         <v>792.794983313278</v>
       </c>
       <c r="S33" t="n">
-        <v>645.6009414938329</v>
+        <v>744.5541252107456</v>
       </c>
       <c r="T33" t="n">
-        <v>645.0220086902401</v>
+        <v>527.4116431027593</v>
       </c>
       <c r="U33" t="n">
-        <v>621.9612431675139</v>
+        <v>504.350877580033</v>
       </c>
       <c r="V33" t="n">
-        <v>595.4450743755415</v>
+        <v>477.8347087880606</v>
       </c>
       <c r="W33" t="n">
-        <v>542.6100544102263</v>
+        <v>208.4361395183519</v>
       </c>
       <c r="X33" t="n">
-        <v>539.6656093313162</v>
+        <v>205.4916944394418</v>
       </c>
       <c r="Y33" t="n">
-        <v>530.5884655710374</v>
+        <v>196.4145506791629</v>
       </c>
     </row>
     <row r="34">
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>72.04761765511236</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="C34" t="n">
-        <v>72.04761765511236</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="D34" t="n">
-        <v>72.04761765511236</v>
+        <v>104.1575453652271</v>
       </c>
       <c r="E34" t="n">
-        <v>72.04761765511236</v>
+        <v>104.1575453652271</v>
       </c>
       <c r="F34" t="n">
-        <v>72.04761765511236</v>
+        <v>104.1575453652271</v>
       </c>
       <c r="G34" t="n">
-        <v>72.04761765511236</v>
+        <v>104.1575453652271</v>
       </c>
       <c r="H34" t="n">
-        <v>72.139227145012</v>
+        <v>104.1575453652271</v>
       </c>
       <c r="I34" t="n">
-        <v>72.139227145012</v>
+        <v>153.2062138381591</v>
       </c>
       <c r="J34" t="n">
-        <v>72.139227145012</v>
+        <v>153.2062138381591</v>
       </c>
       <c r="K34" t="n">
-        <v>72.139227145012</v>
+        <v>153.2062138381591</v>
       </c>
       <c r="L34" t="n">
-        <v>72.139227145012</v>
+        <v>153.2062138381591</v>
       </c>
       <c r="M34" t="n">
-        <v>259.4241500854715</v>
+        <v>153.2062138381591</v>
       </c>
       <c r="N34" t="n">
-        <v>259.4241500854715</v>
+        <v>153.2062138381591</v>
       </c>
       <c r="O34" t="n">
-        <v>259.4241500854715</v>
+        <v>153.2062138381591</v>
       </c>
       <c r="P34" t="n">
-        <v>259.4241500854715</v>
+        <v>162.260301116545</v>
       </c>
       <c r="Q34" t="n">
-        <v>259.4241500854715</v>
+        <v>248.5671146719093</v>
       </c>
       <c r="R34" t="n">
-        <v>259.4241500854715</v>
+        <v>259.4241500854719</v>
       </c>
       <c r="S34" t="n">
-        <v>238.1710034979494</v>
+        <v>238.1710034979498</v>
       </c>
       <c r="T34" t="n">
-        <v>228.7126565863106</v>
+        <v>228.7126565863109</v>
       </c>
       <c r="U34" t="n">
-        <v>153.7039245925156</v>
+        <v>153.7039245925158</v>
       </c>
       <c r="V34" t="n">
-        <v>122.6826100742325</v>
+        <v>122.6826100742326</v>
       </c>
       <c r="W34" t="n">
-        <v>46.00302090454993</v>
+        <v>46.00302090455004</v>
       </c>
       <c r="X34" t="n">
-        <v>38.40550414001163</v>
+        <v>38.40550414001169</v>
       </c>
       <c r="Y34" t="n">
         <v>35.63443444019465</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0203756379699</v>
+        <v>623.0203756379706</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0845948837507</v>
+        <v>544.0845948837516</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7077411385737</v>
+        <v>477.7077411385744</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2836627273268</v>
+        <v>377.2836627273276</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8188392874163</v>
+        <v>244.8188392874168</v>
       </c>
       <c r="G35" t="n">
         <v>96.55706098962315</v>
@@ -6935,52 +6935,52 @@
         <v>20.83690038858565</v>
       </c>
       <c r="J35" t="n">
-        <v>214.1563728731201</v>
+        <v>175.0980249042071</v>
       </c>
       <c r="K35" t="n">
-        <v>214.1563728731201</v>
+        <v>432.9546672129546</v>
       </c>
       <c r="L35" t="n">
-        <v>260.8675312121566</v>
+        <v>479.665825551991</v>
       </c>
       <c r="M35" t="n">
-        <v>492.8589460157726</v>
+        <v>560.5169491653363</v>
       </c>
       <c r="N35" t="n">
-        <v>750.7155883245201</v>
+        <v>635.8338924689984</v>
       </c>
       <c r="O35" t="n">
-        <v>784.9258834013024</v>
+        <v>670.0441875457807</v>
       </c>
       <c r="P35" t="n">
-        <v>784.9258834013024</v>
+        <v>670.0441875457807</v>
       </c>
       <c r="Q35" t="n">
-        <v>965.4431205000918</v>
+        <v>850.5614246445701</v>
       </c>
       <c r="R35" t="n">
-        <v>1041.845019429283</v>
+        <v>926.963323573761</v>
       </c>
       <c r="S35" t="n">
-        <v>1041.845019429283</v>
+        <v>971.0585842550366</v>
       </c>
       <c r="T35" t="n">
-        <v>1041.845019429283</v>
+        <v>1020.155576726193</v>
       </c>
       <c r="U35" t="n">
         <v>1041.845019429283</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5311717781206</v>
+        <v>992.5311717781208</v>
       </c>
       <c r="W35" t="n">
-        <v>926.02875825159</v>
+        <v>926.0287582515905</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4190210190604</v>
+        <v>837.4190210190609</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0791291160825</v>
+        <v>726.0791291160831</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>464.6987621940114</v>
+        <v>200.8511920263975</v>
       </c>
       <c r="C36" t="n">
-        <v>464.6987621940114</v>
+        <v>200.8511920263975</v>
       </c>
       <c r="D36" t="n">
-        <v>464.6987621940114</v>
+        <v>200.8511920263975</v>
       </c>
       <c r="E36" t="n">
-        <v>464.6987621940114</v>
+        <v>200.8511920263975</v>
       </c>
       <c r="F36" t="n">
-        <v>464.6987621940114</v>
+        <v>200.8511920263975</v>
       </c>
       <c r="G36" t="n">
-        <v>464.6987621940114</v>
+        <v>200.8511920263975</v>
       </c>
       <c r="H36" t="n">
-        <v>337.69285825714</v>
+        <v>73.84528808952619</v>
       </c>
       <c r="I36" t="n">
-        <v>337.69285825714</v>
+        <v>73.84528808952619</v>
       </c>
       <c r="J36" t="n">
-        <v>284.6844705561995</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="K36" t="n">
-        <v>322.6424945794651</v>
+        <v>58.79492441185123</v>
       </c>
       <c r="L36" t="n">
-        <v>439.968284524462</v>
+        <v>176.1207143568482</v>
       </c>
       <c r="M36" t="n">
-        <v>621.6366117077282</v>
+        <v>357.7890415401144</v>
       </c>
       <c r="N36" t="n">
-        <v>826.5330485074364</v>
+        <v>562.6854783398226</v>
       </c>
       <c r="O36" t="n">
-        <v>958.2261760507076</v>
+        <v>694.3786058830938</v>
       </c>
       <c r="P36" t="n">
-        <v>1041.845019429283</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="Q36" t="n">
-        <v>1034.901898764209</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="R36" t="n">
-        <v>1034.901898764209</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="S36" t="n">
-        <v>1034.901898764209</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="T36" t="n">
-        <v>1034.901898764209</v>
+        <v>560.8549671536825</v>
       </c>
       <c r="U36" t="n">
-        <v>1034.901898764209</v>
+        <v>560.8549671536825</v>
       </c>
       <c r="V36" t="n">
-        <v>1034.901898764209</v>
+        <v>317.7752490573166</v>
       </c>
       <c r="W36" t="n">
-        <v>909.8474496419874</v>
+        <v>317.7752490573166</v>
       </c>
       <c r="X36" t="n">
-        <v>690.3394552586838</v>
+        <v>200.8511920263975</v>
       </c>
       <c r="Y36" t="n">
-        <v>464.6987621940114</v>
+        <v>200.8511920263975</v>
       </c>
     </row>
     <row r="37">
@@ -7087,34 +7087,34 @@
         <v>20.83690038858565</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="J37" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="K37" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="L37" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="M37" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="N37" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="O37" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="P37" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="R37" t="n">
         <v>56.03802837397788</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0203756379705</v>
+        <v>623.0203756379706</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0845948837513</v>
+        <v>544.0845948837514</v>
       </c>
       <c r="D38" t="n">
-        <v>477.707741138574</v>
+        <v>477.7077411385744</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2836627273272</v>
+        <v>377.2836627273275</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8188392874164</v>
+        <v>244.8188392874172</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55706098962315</v>
+        <v>96.55706098962318</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="I38" t="n">
-        <v>51.57334671175848</v>
+        <v>51.57334671175849</v>
       </c>
       <c r="J38" t="n">
-        <v>244.892819196293</v>
+        <v>51.57334671175849</v>
       </c>
       <c r="K38" t="n">
-        <v>363.9957855567993</v>
+        <v>309.4299890205061</v>
       </c>
       <c r="L38" t="n">
-        <v>621.8524278655468</v>
+        <v>567.2866313292539</v>
       </c>
       <c r="M38" t="n">
-        <v>702.7035514788921</v>
+        <v>648.1377549425991</v>
       </c>
       <c r="N38" t="n">
-        <v>778.0204947825542</v>
+        <v>905.9943972513468</v>
       </c>
       <c r="O38" t="n">
-        <v>812.2307898593365</v>
+        <v>940.204692328129</v>
       </c>
       <c r="P38" t="n">
-        <v>812.2307898593365</v>
+        <v>940.204692328129</v>
       </c>
       <c r="Q38" t="n">
-        <v>992.7480269581259</v>
+        <v>940.204692328129</v>
       </c>
       <c r="R38" t="n">
-        <v>992.7480269581259</v>
+        <v>1016.60659125732</v>
       </c>
       <c r="S38" t="n">
-        <v>992.7480269581259</v>
+        <v>1020.155576726194</v>
       </c>
       <c r="T38" t="n">
-        <v>1041.845019429283</v>
+        <v>1020.155576726194</v>
       </c>
       <c r="U38" t="n">
         <v>1041.845019429283</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5311717781209</v>
+        <v>992.5311717781212</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0287582515905</v>
+        <v>926.0287582515907</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4190210190609</v>
+        <v>837.4190210190611</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0791291160831</v>
+        <v>726.0791291160832</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>54.68307243376034</v>
+        <v>458.2476744347857</v>
       </c>
       <c r="C39" t="n">
-        <v>54.68307243376034</v>
+        <v>458.2476744347857</v>
       </c>
       <c r="D39" t="n">
-        <v>54.68307243376034</v>
+        <v>458.2476744347857</v>
       </c>
       <c r="E39" t="n">
-        <v>54.68307243376034</v>
+        <v>284.6844705562002</v>
       </c>
       <c r="F39" t="n">
-        <v>54.68307243376034</v>
+        <v>284.6844705562002</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83690038858565</v>
+        <v>284.6844705562002</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83690038858565</v>
+        <v>284.6844705562002</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83690038858565</v>
+        <v>284.6844705562002</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83690038858565</v>
+        <v>284.6844705562002</v>
       </c>
       <c r="K39" t="n">
-        <v>58.79492441185124</v>
+        <v>322.6424945794657</v>
       </c>
       <c r="L39" t="n">
-        <v>176.1207143568482</v>
+        <v>439.9682845244627</v>
       </c>
       <c r="M39" t="n">
-        <v>357.7890415401144</v>
+        <v>621.6366117077289</v>
       </c>
       <c r="N39" t="n">
-        <v>562.6854783398226</v>
+        <v>826.5330485074371</v>
       </c>
       <c r="O39" t="n">
-        <v>694.3786058830938</v>
+        <v>958.2261760507083</v>
       </c>
       <c r="P39" t="n">
-        <v>777.9974492616689</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="Q39" t="n">
-        <v>777.9974492616689</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="R39" t="n">
-        <v>777.9974492616689</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="S39" t="n">
-        <v>777.9974492616689</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="T39" t="n">
-        <v>560.8549671536825</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="U39" t="n">
-        <v>560.8549671536825</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="V39" t="n">
-        <v>317.7752490573166</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="W39" t="n">
-        <v>54.68307243376034</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="X39" t="n">
-        <v>54.68307243376034</v>
+        <v>822.3370250459798</v>
       </c>
       <c r="Y39" t="n">
-        <v>54.68307243376034</v>
+        <v>636.7835273617209</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="C40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="D40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="E40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="F40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="G40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="H40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27289296922554</v>
+        <v>39.27289296922555</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27289296922554</v>
+        <v>39.27289296922555</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858567</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4119981543693</v>
+        <v>818.4119981543699</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1156967153497</v>
+        <v>708.1156967153505</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3783222853722</v>
+        <v>610.378322285373</v>
       </c>
       <c r="E41" t="n">
-        <v>478.5937231893249</v>
+        <v>478.5937231893259</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7683790646139</v>
+        <v>314.7683790646148</v>
       </c>
       <c r="G41" t="n">
-        <v>135.1460800820201</v>
+        <v>135.14608008202</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06539879618224</v>
+        <v>28.06539879618223</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06539879618224</v>
+        <v>28.06539879618223</v>
       </c>
       <c r="J41" t="n">
-        <v>28.06539879618224</v>
+        <v>190.6484249575439</v>
       </c>
       <c r="K41" t="n">
-        <v>259.999709850894</v>
+        <v>190.6484249575439</v>
       </c>
       <c r="L41" t="n">
-        <v>545.3129055569143</v>
+        <v>434.6505298527857</v>
       </c>
       <c r="M41" t="n">
         <v>754.103690833115</v>
@@ -7445,16 +7445,16 @@
         <v>1394.039245369684</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.364877033721</v>
+        <v>1313.364877033722</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.50194282239</v>
+        <v>1215.501942822391</v>
       </c>
       <c r="X41" t="n">
         <v>1095.531684905061</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8312723172822</v>
+        <v>952.8312723172828</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>290.1866853348844</v>
+        <v>100.4823216153447</v>
       </c>
       <c r="C42" t="n">
-        <v>290.1866853348844</v>
+        <v>100.4823216153447</v>
       </c>
       <c r="D42" t="n">
-        <v>129.4065690959162</v>
+        <v>100.4823216153447</v>
       </c>
       <c r="E42" t="n">
-        <v>129.4065690959162</v>
+        <v>100.4823216153447</v>
       </c>
       <c r="F42" t="n">
-        <v>129.4065690959162</v>
+        <v>100.4823216153447</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06539879618224</v>
+        <v>100.4823216153447</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06539879618224</v>
+        <v>100.4823216153447</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06539879618224</v>
+        <v>28.06539879618223</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06539879618224</v>
+        <v>28.06539879618223</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02342281944783</v>
+        <v>66.0234228194478</v>
       </c>
       <c r="L42" t="n">
         <v>183.3492127644448</v>
       </c>
       <c r="M42" t="n">
-        <v>365.017539947711</v>
+        <v>365.0175399477109</v>
       </c>
       <c r="N42" t="n">
         <v>569.9139767474192</v>
@@ -7515,25 +7515,25 @@
         <v>785.2259476692655</v>
       </c>
       <c r="S42" t="n">
-        <v>785.2259476692655</v>
+        <v>591.6992735682097</v>
       </c>
       <c r="T42" t="n">
-        <v>785.2259476692655</v>
+        <v>591.6992735682097</v>
       </c>
       <c r="U42" t="n">
-        <v>785.2259476692655</v>
+        <v>352.0749587410899</v>
       </c>
       <c r="V42" t="n">
-        <v>785.2259476692655</v>
+        <v>352.0749587410899</v>
       </c>
       <c r="W42" t="n">
-        <v>515.8273783995568</v>
+        <v>326.1230146800171</v>
       </c>
       <c r="X42" t="n">
-        <v>515.8273783995568</v>
+        <v>326.1230146800171</v>
       </c>
       <c r="Y42" t="n">
-        <v>290.1866853348844</v>
+        <v>100.4823216153447</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06539879618224</v>
+        <v>90.82668470484786</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06539879618224</v>
+        <v>90.82668470484786</v>
       </c>
       <c r="D43" t="n">
-        <v>113.0478298795653</v>
+        <v>90.82668470484786</v>
       </c>
       <c r="E43" t="n">
-        <v>113.0478298795653</v>
+        <v>90.82668470484786</v>
       </c>
       <c r="F43" t="n">
-        <v>113.0478298795653</v>
+        <v>90.82668470484786</v>
       </c>
       <c r="G43" t="n">
-        <v>113.0478298795653</v>
+        <v>90.82668470484786</v>
       </c>
       <c r="H43" t="n">
-        <v>113.0478298795653</v>
+        <v>130.1258067652158</v>
       </c>
       <c r="I43" t="n">
-        <v>113.0478298795653</v>
+        <v>130.1258067652158</v>
       </c>
       <c r="J43" t="n">
-        <v>113.0478298795653</v>
+        <v>130.1258067652158</v>
       </c>
       <c r="K43" t="n">
-        <v>113.0478298795653</v>
+        <v>130.1258067652158</v>
       </c>
       <c r="L43" t="n">
-        <v>113.0478298795653</v>
+        <v>130.1258067652158</v>
       </c>
       <c r="M43" t="n">
-        <v>113.0478298795653</v>
+        <v>130.1258067652158</v>
       </c>
       <c r="N43" t="n">
-        <v>113.0478298795653</v>
+        <v>130.1258067652158</v>
       </c>
       <c r="O43" t="n">
-        <v>113.0478298795653</v>
+        <v>130.1258067652158</v>
       </c>
       <c r="P43" t="n">
-        <v>113.0478298795653</v>
+        <v>130.1258067652158</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.0478298795653</v>
+        <v>130.1258067652158</v>
       </c>
       <c r="R43" t="n">
-        <v>113.0478298795653</v>
+        <v>130.1258067652158</v>
       </c>
       <c r="S43" t="n">
-        <v>113.0478298795653</v>
+        <v>130.1258067652158</v>
       </c>
       <c r="T43" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652158</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00015067566332</v>
+        <v>82.00015067566319</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86191206162249</v>
+        <v>77.86191206162242</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06539879618224</v>
+        <v>28.06539879618223</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06539879618224</v>
+        <v>28.06539879618223</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06539879618224</v>
+        <v>28.06539879618223</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4119981543695</v>
+        <v>818.4119981543696</v>
       </c>
       <c r="C44" t="n">
         <v>708.1156967153499</v>
@@ -7631,19 +7631,19 @@
         <v>610.3783222853724</v>
       </c>
       <c r="E44" t="n">
-        <v>478.593723189325</v>
+        <v>478.5937231893253</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7683790646139</v>
+        <v>314.7683790646142</v>
       </c>
       <c r="G44" t="n">
-        <v>135.1460800820201</v>
+        <v>135.14608008202</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06539879618224</v>
+        <v>28.06539879618223</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06539879618224</v>
+        <v>28.06539879618223</v>
       </c>
       <c r="J44" t="n">
         <v>190.6484249575439</v>
@@ -7652,34 +7652,34 @@
         <v>190.6484249575439</v>
       </c>
       <c r="L44" t="n">
-        <v>475.9616206635642</v>
+        <v>475.9616206635643</v>
       </c>
       <c r="M44" t="n">
-        <v>592.886466578236</v>
+        <v>795.4147816438935</v>
       </c>
       <c r="N44" t="n">
-        <v>906.805447248882</v>
+        <v>903.2920034776237</v>
       </c>
       <c r="O44" t="n">
-        <v>1179.617779692648</v>
+        <v>1176.10433592139</v>
       </c>
       <c r="P44" t="n">
-        <v>1403.269939809112</v>
+        <v>1176.10433592139</v>
       </c>
       <c r="Q44" t="n">
-        <v>1403.269939809112</v>
+        <v>1325.885126697007</v>
       </c>
       <c r="R44" t="n">
-        <v>1403.269939809112</v>
+        <v>1371.550579303025</v>
       </c>
       <c r="S44" t="n">
-        <v>1403.269939809112</v>
+        <v>1384.909393661128</v>
       </c>
       <c r="T44" t="n">
         <v>1403.269939809112</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.039245369684</v>
+        <v>1394.039245369683</v>
       </c>
       <c r="V44" t="n">
         <v>1313.364877033721</v>
@@ -7691,7 +7691,7 @@
         <v>1095.531684905061</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8312723172825</v>
+        <v>952.8312723172826</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>188.4931150789382</v>
+        <v>188.8455150351505</v>
       </c>
       <c r="C45" t="n">
-        <v>188.4931150789382</v>
+        <v>188.8455150351505</v>
       </c>
       <c r="D45" t="n">
-        <v>188.4931150789382</v>
+        <v>28.06539879618223</v>
       </c>
       <c r="E45" t="n">
-        <v>188.4931150789382</v>
+        <v>28.06539879618223</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06539879618224</v>
+        <v>28.06539879618223</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06539879618224</v>
+        <v>28.06539879618223</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06539879618224</v>
+        <v>28.06539879618223</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06539879618224</v>
+        <v>28.06539879618223</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06539879618224</v>
+        <v>28.06539879618223</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02342281944783</v>
+        <v>66.0234228194478</v>
       </c>
       <c r="L45" t="n">
         <v>183.3492127644448</v>
       </c>
       <c r="M45" t="n">
-        <v>365.017539947711</v>
+        <v>365.0175399477109</v>
       </c>
       <c r="N45" t="n">
         <v>569.9139767474192</v>
@@ -7755,22 +7755,22 @@
         <v>785.2259476692655</v>
       </c>
       <c r="T45" t="n">
-        <v>568.0834655612791</v>
+        <v>785.2259476692655</v>
       </c>
       <c r="U45" t="n">
-        <v>457.5247772363769</v>
+        <v>545.6016328421456</v>
       </c>
       <c r="V45" t="n">
-        <v>214.445059140011</v>
+        <v>434.3054534795269</v>
       </c>
       <c r="W45" t="n">
-        <v>188.4931150789382</v>
+        <v>408.3535094184541</v>
       </c>
       <c r="X45" t="n">
-        <v>188.4931150789382</v>
+        <v>188.8455150351505</v>
       </c>
       <c r="Y45" t="n">
-        <v>188.4931150789382</v>
+        <v>188.8455150351505</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>90.82668470484782</v>
+        <v>28.06539879618223</v>
       </c>
       <c r="C46" t="n">
-        <v>90.82668470484782</v>
+        <v>49.21114187521832</v>
       </c>
       <c r="D46" t="n">
-        <v>130.125806765216</v>
+        <v>49.21114187521832</v>
       </c>
       <c r="E46" t="n">
-        <v>130.125806765216</v>
+        <v>49.21114187521832</v>
       </c>
       <c r="F46" t="n">
-        <v>130.125806765216</v>
+        <v>49.21114187521832</v>
       </c>
       <c r="G46" t="n">
-        <v>130.125806765216</v>
+        <v>49.21114187521832</v>
       </c>
       <c r="H46" t="n">
-        <v>130.125806765216</v>
+        <v>49.21114187521832</v>
       </c>
       <c r="I46" t="n">
-        <v>130.125806765216</v>
+        <v>124.6079130418983</v>
       </c>
       <c r="J46" t="n">
-        <v>130.125806765216</v>
+        <v>124.6079130418983</v>
       </c>
       <c r="K46" t="n">
-        <v>130.125806765216</v>
+        <v>124.6079130418983</v>
       </c>
       <c r="L46" t="n">
-        <v>130.125806765216</v>
+        <v>124.6079130418983</v>
       </c>
       <c r="M46" t="n">
-        <v>130.125806765216</v>
+        <v>124.6079130418983</v>
       </c>
       <c r="N46" t="n">
-        <v>130.125806765216</v>
+        <v>124.6079130418983</v>
       </c>
       <c r="O46" t="n">
-        <v>130.125806765216</v>
+        <v>124.6079130418983</v>
       </c>
       <c r="P46" t="n">
-        <v>130.125806765216</v>
+        <v>124.6079130418983</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.125806765216</v>
+        <v>124.6079130418983</v>
       </c>
       <c r="R46" t="n">
-        <v>130.125806765216</v>
+        <v>124.6079130418983</v>
       </c>
       <c r="S46" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652158</v>
       </c>
       <c r="T46" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652158</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00015067566332</v>
+        <v>82.00015067566319</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86191206162249</v>
+        <v>77.86191206162242</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06539879618224</v>
+        <v>28.06539879618223</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06539879618224</v>
+        <v>28.06539879618223</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06539879618224</v>
+        <v>28.06539879618223</v>
       </c>
     </row>
   </sheetData>
@@ -8532,22 +8532,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.373473584151</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
         <v>172.5532127625713</v>
       </c>
       <c r="M9" t="n">
-        <v>176.9203908159872</v>
+        <v>176.7782950813963</v>
       </c>
       <c r="N9" t="n">
-        <v>160.4047444027676</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
         <v>177.484287653347</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>166.9656464766077</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -9252,7 +9252,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.133805873377</v>
+        <v>292.1338058733768</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9480,7 +9480,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841511</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1338058733769</v>
+        <v>292.133805873377</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23258,25 +23258,25 @@
         <v>195.9454765282923</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>172.0637335316378</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6303957926862</v>
+        <v>159.6303957926863</v>
       </c>
       <c r="E11" t="n">
-        <v>23.62727176795851</v>
+        <v>4.851103135857926</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0574857904724</v>
+        <v>52.19388265625072</v>
       </c>
       <c r="G11" t="n">
-        <v>240.6964710997769</v>
+        <v>240.696471099777</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.880269579988</v>
       </c>
       <c r="I11" t="n">
-        <v>62.87039510700843</v>
+        <v>62.87039510700853</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.74367530294984</v>
       </c>
       <c r="S11" t="n">
-        <v>49.3766432301369</v>
+        <v>49.37664323013698</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.32438889692373</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00878260204223</v>
+        <v>72.00878260204232</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7380197596109</v>
+        <v>142.738019759611</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.7546999762259</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6409504451651</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1438035689088</v>
+        <v>15.65775849267166</v>
       </c>
     </row>
     <row r="12">
@@ -23498,22 +23498,22 @@
         <v>172.0637335316378</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6303957926863</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3371482120952</v>
+        <v>4.851103135857926</v>
       </c>
       <c r="F14" t="n">
         <v>225.0574857904725</v>
       </c>
       <c r="G14" t="n">
-        <v>238.6773826879784</v>
+        <v>240.696471099777</v>
       </c>
       <c r="H14" t="n">
-        <v>168.880269579988</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.87039510700852</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,25 +23540,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.74367530294979</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.37664323013698</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.32438889692372</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.26686907870342</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>159.7546999762259</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.6409504451651</v>
       </c>
       <c r="Y14" t="n">
         <v>204.1438035689089</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.679101716144942e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-2.984279490192421e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>955455.8589509315</v>
+        <v>955455.8589509313</v>
       </c>
     </row>
     <row r="6">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>440965.9975882299</v>
+        <v>440965.99758823</v>
       </c>
       <c r="C2" t="n">
-        <v>440965.99758823</v>
+        <v>440965.9975882301</v>
       </c>
       <c r="D2" t="n">
-        <v>441233.2991272612</v>
+        <v>441233.2991272613</v>
       </c>
       <c r="E2" t="n">
-        <v>379861.3937407242</v>
+        <v>379861.393740724</v>
       </c>
       <c r="F2" t="n">
-        <v>379861.393740724</v>
+        <v>379861.3937407239</v>
       </c>
       <c r="G2" t="n">
+        <v>441859.2744292679</v>
+      </c>
+      <c r="H2" t="n">
         <v>441859.2744292678</v>
       </c>
-      <c r="H2" t="n">
-        <v>441859.2744292677</v>
-      </c>
       <c r="I2" t="n">
-        <v>441859.2744292677</v>
+        <v>441859.2744292676</v>
       </c>
       <c r="J2" t="n">
         <v>441859.2744292673</v>
       </c>
       <c r="K2" t="n">
-        <v>441859.2744292677</v>
+        <v>441859.2744292673</v>
       </c>
       <c r="L2" t="n">
         <v>441859.2744292677</v>
       </c>
       <c r="M2" t="n">
-        <v>441859.2744292674</v>
+        <v>441859.2744292675</v>
       </c>
       <c r="N2" t="n">
-        <v>441859.2744292674</v>
+        <v>441859.2744292676</v>
       </c>
       <c r="O2" t="n">
-        <v>441859.2744292677</v>
+        <v>441859.2744292675</v>
       </c>
       <c r="P2" t="n">
         <v>441859.2744292676</v>
@@ -26372,13 +26372,13 @@
         <v>1092.445151390297</v>
       </c>
       <c r="E3" t="n">
-        <v>279010.1432673798</v>
+        <v>279010.1432673797</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95448.13167658173</v>
+        <v>95448.13167658169</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143490.4163710104</v>
+        <v>143490.4163710103</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96176.03924395819</v>
+        <v>96176.03924395812</v>
       </c>
       <c r="M3" t="n">
-        <v>46128.92849852174</v>
+        <v>46128.92849852183</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72249.07655134122</v>
+        <v>72249.07655134119</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>387618.2278065301</v>
       </c>
       <c r="E4" t="n">
-        <v>273007.168858993</v>
+        <v>273007.1688589929</v>
       </c>
       <c r="F4" t="n">
         <v>273007.1688589929</v>
       </c>
       <c r="G4" t="n">
-        <v>343622.2351637972</v>
+        <v>343622.2351637971</v>
       </c>
       <c r="H4" t="n">
         <v>343622.2351637971</v>
       </c>
       <c r="I4" t="n">
-        <v>343622.235163797</v>
+        <v>343622.2351637972</v>
       </c>
       <c r="J4" t="n">
         <v>344332.0121859593</v>
@@ -26451,10 +26451,10 @@
         <v>343507.3401207502</v>
       </c>
       <c r="N4" t="n">
-        <v>343507.3401207502</v>
+        <v>343507.3401207503</v>
       </c>
       <c r="O4" t="n">
-        <v>343894.3694482117</v>
+        <v>343894.3694482118</v>
       </c>
       <c r="P4" t="n">
         <v>343894.3694482117</v>
@@ -26476,7 +26476,7 @@
         <v>33841.42566141239</v>
       </c>
       <c r="E5" t="n">
-        <v>28641.35152034391</v>
+        <v>28641.3515203439</v>
       </c>
       <c r="F5" t="n">
         <v>28641.3515203439</v>
@@ -26488,10 +26488,10 @@
         <v>38671.63774774208</v>
       </c>
       <c r="I5" t="n">
-        <v>38671.63774774208</v>
+        <v>38671.63774774209</v>
       </c>
       <c r="J5" t="n">
-        <v>47448.92101020607</v>
+        <v>47448.92101020608</v>
       </c>
       <c r="K5" t="n">
         <v>47448.92101020608</v>
@@ -26503,7 +26503,7 @@
         <v>40912.97865860084</v>
       </c>
       <c r="N5" t="n">
-        <v>40912.97865860084</v>
+        <v>40912.97865860086</v>
       </c>
       <c r="O5" t="n">
         <v>43796.55431105827</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19412.28698949467</v>
+        <v>19407.82060528954</v>
       </c>
       <c r="C6" t="n">
-        <v>19412.28698949473</v>
+        <v>19407.8206052896</v>
       </c>
       <c r="D6" t="n">
-        <v>18681.20050792841</v>
+        <v>18678.07063141844</v>
       </c>
       <c r="E6" t="n">
-        <v>-200797.2699059925</v>
+        <v>-201107.2593094353</v>
       </c>
       <c r="F6" t="n">
-        <v>78212.87336138725</v>
+        <v>77902.88395794434</v>
       </c>
       <c r="G6" t="n">
-        <v>-35882.73015885319</v>
+        <v>-35882.73015885301</v>
       </c>
       <c r="H6" t="n">
-        <v>59565.40151772855</v>
+        <v>59565.40151772861</v>
       </c>
       <c r="I6" t="n">
-        <v>59565.40151772855</v>
+        <v>59565.40151772837</v>
       </c>
       <c r="J6" t="n">
         <v>-93412.07513790837</v>
       </c>
       <c r="K6" t="n">
-        <v>50078.34123310234</v>
+        <v>50078.34123310194</v>
       </c>
       <c r="L6" t="n">
-        <v>-45944.10711862548</v>
+        <v>-45944.10711862537</v>
       </c>
       <c r="M6" t="n">
-        <v>11310.02715139456</v>
+        <v>11310.02715139462</v>
       </c>
       <c r="N6" t="n">
-        <v>57438.95564991636</v>
+        <v>57438.95564991646</v>
       </c>
       <c r="O6" t="n">
-        <v>-18080.72588134355</v>
+        <v>-18080.72588134379</v>
       </c>
       <c r="P6" t="n">
         <v>54168.35066999755</v>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="F2" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="G2" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="H2" t="n">
         <v>297.4519284452681</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="F3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="G3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="H3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="I3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="J3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="K3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="L3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="M3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="N3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="O3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="P3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
     </row>
     <row r="4">
@@ -26805,13 +26805,13 @@
         <v>188.4860450762372</v>
       </c>
       <c r="H4" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762374</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9472999335579</v>
+        <v>448.947299933558</v>
       </c>
       <c r="K4" t="n">
         <v>448.9472999335579</v>
@@ -26823,7 +26823,7 @@
         <v>260.4612548573207</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573209</v>
       </c>
       <c r="O4" t="n">
         <v>350.8174849522779</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.3101645957272</v>
+        <v>119.3101645957271</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.17786475640196</v>
+        <v>94.1778647564019</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>120.2200490549477</v>
       </c>
       <c r="M2" t="n">
-        <v>57.66116062315217</v>
+        <v>57.66116062315228</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13094927844958</v>
+        <v>63.13094927844961</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.35623009495725</v>
+        <v>90.35623009495703</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.3101645957272</v>
+        <v>119.3101645957271</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.17786475640196</v>
+        <v>94.1778647564019</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27932,7 +27932,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C9" t="n">
-        <v>184.4204929294312</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
         <v>159.1723150765785</v>
@@ -27950,7 +27950,7 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>111.3389500165922</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
         <v>73.03491363274843</v>
@@ -27980,16 +27980,16 @@
         <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>192.1160050168152</v>
       </c>
       <c r="T9" t="n">
         <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2423862021824</v>
+        <v>233.7255167710576</v>
       </c>
       <c r="V9" t="n">
-        <v>237.1320514842774</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W9" t="n">
         <v>266.7045835770116</v>
@@ -27998,7 +27998,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y9" t="n">
-        <v>223.3842861340256</v>
+        <v>220.2866275390909</v>
       </c>
     </row>
     <row r="10">
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="C11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="D11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="E11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="F11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="G11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="H11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="I11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="J11" t="n">
         <v>76.78688000567914</v>
       </c>
       <c r="K11" t="n">
-        <v>6.735077083103285</v>
+        <v>178.141763849541</v>
       </c>
       <c r="L11" t="n">
-        <v>141.3030568549884</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>99.20264566573753</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>112.4083245674877</v>
+        <v>83.97332109802794</v>
       </c>
       <c r="O11" t="n">
-        <v>153.9301914633259</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>15.10088611163705</v>
+        <v>178.141763849541</v>
       </c>
       <c r="Q11" t="n">
-        <v>89.71843090037106</v>
+        <v>178.141763849541</v>
       </c>
       <c r="R11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="S11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="T11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="U11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="V11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="W11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="X11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28178,10 +28178,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>30.23994049700022</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H12" t="n">
         <v>125.7358448975026</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.873689458423161</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R12" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S12" t="n">
-        <v>178.1417638495411</v>
+        <v>111.3705929962281</v>
       </c>
       <c r="T12" t="n">
-        <v>178.1417638495411</v>
+        <v>26.48501221066923</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="V12" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="W12" t="n">
-        <v>78.21853850077434</v>
+        <v>178.141763849541</v>
       </c>
       <c r="X12" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>178.141763849541</v>
       </c>
       <c r="D13" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="E13" t="n">
-        <v>178.1417638495411</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>156.4736565334485</v>
+        <v>178.141763849541</v>
       </c>
       <c r="G13" t="n">
         <v>168.7008027322384</v>
       </c>
       <c r="H13" t="n">
-        <v>165.824644867158</v>
+        <v>178.141763849541</v>
       </c>
       <c r="I13" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="J13" t="n">
         <v>120.241573402485</v>
       </c>
       <c r="K13" t="n">
-        <v>178.1417638495411</v>
+        <v>114.645180069149</v>
       </c>
       <c r="L13" t="n">
-        <v>178.1417638495411</v>
+        <v>32.15595010613791</v>
       </c>
       <c r="M13" t="n">
-        <v>178.1417638495411</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N13" t="n">
-        <v>16.52441230575097</v>
+        <v>178.141763849541</v>
       </c>
       <c r="O13" t="n">
-        <v>37.48281412028792</v>
+        <v>178.141763849541</v>
       </c>
       <c r="P13" t="n">
         <v>58.48196179900678</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.2193142604766</v>
+        <v>178.141763849541</v>
       </c>
       <c r="R13" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="S13" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="T13" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="U13" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="V13" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="W13" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="X13" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
     </row>
     <row r="14">
@@ -28354,22 +28354,22 @@
         <v>178.141763849541</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>141.3030568549884</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>112.4083245674877</v>
+        <v>40.20428346678747</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>153.9301914633259</v>
       </c>
       <c r="P14" t="n">
-        <v>178.141763849541</v>
+        <v>15.10088611163706</v>
       </c>
       <c r="Q14" t="n">
-        <v>149.7067603800811</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R14" t="n">
         <v>178.141763849541</v>
@@ -28412,16 +28412,16 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>49.71179237211885</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>73.56023793998682</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H15" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>107.364552236389</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.873689458423161</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R15" t="n">
         <v>134.7218599774646</v>
@@ -28460,7 +28460,7 @@
         <v>178.141763849541</v>
       </c>
       <c r="U15" t="n">
-        <v>178.141763849541</v>
+        <v>48.74202660261137</v>
       </c>
       <c r="V15" t="n">
         <v>178.141763849541</v>
@@ -28472,7 +28472,7 @@
         <v>178.141763849541</v>
       </c>
       <c r="Y15" t="n">
-        <v>34.89824105778837</v>
+        <v>178.141763849541</v>
       </c>
     </row>
     <row r="16">
@@ -28485,16 +28485,16 @@
         <v>178.141763849541</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>178.141763849541</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>178.141763849541</v>
       </c>
       <c r="E16" t="n">
+        <v>141.676141212225</v>
+      </c>
+      <c r="F16" t="n">
         <v>178.141763849541</v>
-      </c>
-      <c r="F16" t="n">
-        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
         <v>178.141763849541</v>
@@ -28509,7 +28509,7 @@
         <v>120.241573402485</v>
       </c>
       <c r="K16" t="n">
-        <v>178.141763849541</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L16" t="n">
         <v>32.15595010613791</v>
@@ -28518,13 +28518,13 @@
         <v>178.141763849541</v>
       </c>
       <c r="N16" t="n">
-        <v>16.52441230575097</v>
+        <v>76.68019194652823</v>
       </c>
       <c r="O16" t="n">
-        <v>54.92214364504969</v>
+        <v>178.141763849541</v>
       </c>
       <c r="P16" t="n">
-        <v>178.141763849541</v>
+        <v>58.48196179900678</v>
       </c>
       <c r="Q16" t="n">
         <v>178.141763849541</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="C17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="D17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="E17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="F17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="G17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="H17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="I17" t="n">
         <v>241.0121589565495</v>
@@ -28588,13 +28588,13 @@
         <v>76.78688000567914</v>
       </c>
       <c r="K17" t="n">
-        <v>6.735077083103285</v>
+        <v>6.735077083103292</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>141.3030568549883</v>
       </c>
       <c r="M17" t="n">
-        <v>42.140824319488</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28603,34 +28603,34 @@
         <v>153.9301914633259</v>
       </c>
       <c r="P17" t="n">
-        <v>15.10088611163705</v>
+        <v>81.79255928046857</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.2044759766083</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R17" t="n">
         <v>194.8854391524908</v>
       </c>
       <c r="S17" t="n">
-        <v>227.518407079678</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="U17" t="n">
-        <v>297.4519284452682</v>
+        <v>250.1505464515833</v>
       </c>
       <c r="V17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="W17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="X17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>115.7912399156717</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28652,19 +28652,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>148.7446376404189</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>107.364552236389</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47830382393113</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,16 +28685,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.873689458423161</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S18" t="n">
-        <v>191.5914073600452</v>
+        <v>3.105362283807978</v>
       </c>
       <c r="T18" t="n">
-        <v>26.48501221066923</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U18" t="n">
         <v>237.2280716788486</v>
@@ -28703,13 +28703,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>85.5523174989101</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>34.89824105778837</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28755,10 +28755,10 @@
         <v>25.22122397250159</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52441230575097</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O19" t="n">
-        <v>37.48281412028792</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P19" t="n">
         <v>58.48196179900678</v>
@@ -28819,31 +28819,31 @@
         <v>297.4519284452681</v>
       </c>
       <c r="I20" t="n">
-        <v>241.0121589565495</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="J20" t="n">
-        <v>265.2729250819164</v>
+        <v>76.78688000567914</v>
       </c>
       <c r="K20" t="n">
-        <v>6.735077083103285</v>
+        <v>33.95799880971096</v>
       </c>
       <c r="L20" t="n">
-        <v>7.584970706576811</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>112.4083245674877</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>203.5869311878743</v>
+        <v>15.10088611163706</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.71843090037106</v>
+        <v>278.2044759766083</v>
       </c>
       <c r="R20" t="n">
         <v>194.8854391524908</v>
@@ -28901,7 +28901,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,10 +28922,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.873689458423161</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S21" t="n">
         <v>191.5914073600452</v>
@@ -28934,19 +28934,19 @@
         <v>214.9710572869065</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2280716788486</v>
+        <v>48.74202660261136</v>
       </c>
       <c r="V21" t="n">
-        <v>192.4265628215209</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>78.21853850077432</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>177.250127078854</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>34.89824105778837</v>
       </c>
     </row>
     <row r="22">
@@ -28992,10 +28992,10 @@
         <v>25.22122397250159</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52441230575097</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O22" t="n">
-        <v>37.48281412028792</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P22" t="n">
         <v>58.48196179900678</v>
@@ -29056,13 +29056,13 @@
         <v>297.4519284452681</v>
       </c>
       <c r="I23" t="n">
-        <v>241.0121589565495</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="J23" t="n">
-        <v>265.2729250819165</v>
+        <v>265.2729250819166</v>
       </c>
       <c r="K23" t="n">
-        <v>21.29518780861747</v>
+        <v>6.735077083103292</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29074,16 +29074,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>153.9301914633259</v>
+        <v>26.13097691666177</v>
       </c>
       <c r="P23" t="n">
-        <v>15.10088611163705</v>
+        <v>15.10088611163706</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.71843090037106</v>
+        <v>278.2044759766085</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4519284452681</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S23" t="n">
         <v>227.518407079678</v>
@@ -29120,13 +29120,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>81.55458735814685</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7446376404189</v>
@@ -29135,7 +29135,7 @@
         <v>125.7358448975026</v>
       </c>
       <c r="I24" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>52.47830382393113</v>
@@ -29159,31 +29159,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.873689458423161</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S24" t="n">
         <v>191.5914073600452</v>
       </c>
       <c r="T24" t="n">
-        <v>26.48501221066917</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2280716788486</v>
+        <v>48.74202660261119</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>52.16287583916483</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>208.0506273102512</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>34.8982410577882</v>
       </c>
     </row>
     <row r="25">
@@ -29229,10 +29229,10 @@
         <v>25.22122397250159</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52441230575097</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O25" t="n">
-        <v>37.48281412028792</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P25" t="n">
         <v>58.48196179900678</v>
@@ -29296,7 +29296,7 @@
         <v>213.488029352129</v>
       </c>
       <c r="J26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521296</v>
       </c>
       <c r="K26" t="n">
         <v>213.488029352129</v>
@@ -29357,13 +29357,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7446376404189</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.873689458423161</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R27" t="n">
         <v>134.7218599774646</v>
@@ -29405,7 +29405,7 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T27" t="n">
-        <v>213.488029352129</v>
+        <v>10.19680259092576</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29414,10 +29414,10 @@
         <v>213.488029352129</v>
       </c>
       <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
         <v>213.488029352129</v>
-      </c>
-      <c r="X27" t="n">
-        <v>114.7045274353038</v>
       </c>
       <c r="Y27" t="n">
         <v>213.488029352129</v>
@@ -29430,10 +29430,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>213.488029352129</v>
       </c>
       <c r="C28" t="n">
-        <v>213.488029352129</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
@@ -29448,13 +29448,13 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H28" t="n">
+        <v>165.824644867158</v>
+      </c>
+      <c r="I28" t="n">
         <v>213.488029352129</v>
       </c>
-      <c r="I28" t="n">
-        <v>164.8538042427314</v>
-      </c>
       <c r="J28" t="n">
-        <v>213.488029352129</v>
+        <v>120.241573402485</v>
       </c>
       <c r="K28" t="n">
         <v>67.0332105846294</v>
@@ -29466,10 +29466,10 @@
         <v>25.22122397250159</v>
       </c>
       <c r="N28" t="n">
-        <v>61.13245290978193</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O28" t="n">
-        <v>37.48281412028792</v>
+        <v>185.5262097425317</v>
       </c>
       <c r="P28" t="n">
         <v>58.48196179900678</v>
@@ -29588,13 +29588,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4724956754204</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -29633,13 +29633,13 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.873689458423161</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R30" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>213.488029352129</v>
@@ -29648,16 +29648,16 @@
         <v>213.488029352129</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>213.488029352129</v>
       </c>
-      <c r="W30" t="n">
+      <c r="Y30" t="n">
         <v>213.488029352129</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>132.6315827130408</v>
       </c>
     </row>
     <row r="31">
@@ -29670,22 +29670,22 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>213.488029352129</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>213.488029352129</v>
       </c>
       <c r="E31" t="n">
-        <v>213.488029352129</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>213.488029352129</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>207.2131123924831</v>
+        <v>168.7008027322384</v>
       </c>
       <c r="H31" t="n">
-        <v>213.488029352129</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I31" t="n">
         <v>164.8538042427314</v>
@@ -29697,16 +29697,16 @@
         <v>67.0332105846294</v>
       </c>
       <c r="L31" t="n">
-        <v>32.15595010613791</v>
+        <v>149.3684520433653</v>
       </c>
       <c r="M31" t="n">
         <v>25.22122397250159</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52441230575097</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O31" t="n">
-        <v>37.48281412028792</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P31" t="n">
         <v>58.48196179900678</v>
@@ -29779,7 +29779,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="M32" t="n">
-        <v>214.3979138113496</v>
+        <v>192.2835716884562</v>
       </c>
       <c r="N32" t="n">
         <v>214.3979138113496</v>
@@ -29791,7 +29791,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="Q32" t="n">
-        <v>192.2835716884562</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="R32" t="n">
         <v>214.3979138113496</v>
@@ -29825,13 +29825,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -29843,7 +29843,7 @@
         <v>148.7446376404189</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I33" t="n">
         <v>107.364552236389</v>
@@ -29870,16 +29870,16 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.873689458423161</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R33" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S33" t="n">
-        <v>45.86930595879463</v>
+        <v>143.8329578385382</v>
       </c>
       <c r="T33" t="n">
-        <v>214.3979138113496</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>214.3979138113496</v>
@@ -29888,7 +29888,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="W33" t="n">
-        <v>214.3979138113496</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>214.3979138113496</v>
@@ -29904,13 +29904,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>214.3979138113496</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -29922,10 +29922,10 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H34" t="n">
-        <v>165.9171797054404</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I34" t="n">
-        <v>164.8538042427314</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="J34" t="n">
         <v>120.241573402485</v>
@@ -29937,22 +29937,22 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M34" t="n">
+        <v>25.22122397250159</v>
+      </c>
+      <c r="N34" t="n">
+        <v>16.52441230575098</v>
+      </c>
+      <c r="O34" t="n">
+        <v>37.48281412028793</v>
+      </c>
+      <c r="P34" t="n">
+        <v>67.62750450444709</v>
+      </c>
+      <c r="Q34" t="n">
         <v>214.3979138113496</v>
       </c>
-      <c r="N34" t="n">
-        <v>16.52441230575097</v>
-      </c>
-      <c r="O34" t="n">
-        <v>37.48281412028792</v>
-      </c>
-      <c r="P34" t="n">
-        <v>58.48196179900678</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>127.2193142604766</v>
-      </c>
       <c r="R34" t="n">
-        <v>203.4312113734075</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="S34" t="n">
         <v>214.3979138113496</v>
@@ -30007,25 +30007,25 @@
         <v>241.0121589565495</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0590744345018</v>
+        <v>232.6061976982261</v>
       </c>
       <c r="K35" t="n">
-        <v>6.735077083103285</v>
+        <v>267.196331940424</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>152.6669607982533</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>184.3835343485711</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>15.10088611163705</v>
+        <v>15.10088611163706</v>
       </c>
       <c r="Q35" t="n">
         <v>272.0590744345018</v>
@@ -30034,13 +30034,13 @@
         <v>272.0590744345018</v>
       </c>
       <c r="S35" t="n">
-        <v>227.518407079678</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4661527464647</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1505464515833</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="V35" t="n">
         <v>272.0590744345018</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R36" t="n">
         <v>134.7218599774646</v>
@@ -30116,22 +30116,22 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>142.9006789460123</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>101.5580979788607</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30159,7 +30159,7 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H37" t="n">
-        <v>165.824644867158</v>
+        <v>201.3813398018976</v>
       </c>
       <c r="I37" t="n">
         <v>164.8538042427314</v>
@@ -30177,10 +30177,10 @@
         <v>25.22122397250159</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52441230575097</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O37" t="n">
-        <v>37.48281412028792</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P37" t="n">
         <v>58.48196179900678</v>
@@ -30189,7 +30189,7 @@
         <v>127.2193142604766</v>
       </c>
       <c r="R37" t="n">
-        <v>238.9879063081471</v>
+        <v>203.4312113734075</v>
       </c>
       <c r="S37" t="n">
         <v>235.4385289329965</v>
@@ -30244,40 +30244,40 @@
         <v>272.0590744345018</v>
       </c>
       <c r="J38" t="n">
+        <v>76.78688000567914</v>
+      </c>
+      <c r="K38" t="n">
+        <v>267.1963319404242</v>
+      </c>
+      <c r="L38" t="n">
+        <v>213.278266636072</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>184.3835343485713</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>15.10088611163706</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>89.71843090037106</v>
+      </c>
+      <c r="R38" t="n">
         <v>272.0590744345018</v>
       </c>
-      <c r="K38" t="n">
-        <v>127.0411037098774</v>
-      </c>
-      <c r="L38" t="n">
-        <v>213.2782666360718</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>15.10088611163705</v>
-      </c>
-      <c r="Q38" t="n">
+      <c r="S38" t="n">
+        <v>231.1032408866216</v>
+      </c>
+      <c r="T38" t="n">
+        <v>222.4661527464647</v>
+      </c>
+      <c r="U38" t="n">
         <v>272.0590744345018</v>
-      </c>
-      <c r="R38" t="n">
-        <v>194.8854391524908</v>
-      </c>
-      <c r="S38" t="n">
-        <v>227.518407079678</v>
-      </c>
-      <c r="T38" t="n">
-        <v>272.0590744345018</v>
-      </c>
-      <c r="U38" t="n">
-        <v>250.1505464515833</v>
       </c>
       <c r="V38" t="n">
         <v>272.0590744345018</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -30308,13 +30308,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>115.2369273156959</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H39" t="n">
         <v>125.7358448975026</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.873689458423161</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R39" t="n">
         <v>134.7218599774646</v>
@@ -30353,22 +30353,22 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U39" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>6.243328719690908</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>39.68632342660931</v>
       </c>
     </row>
     <row r="40">
@@ -30378,13 +30378,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>213.1736155997077</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
-        <v>145.1826502507107</v>
+        <v>180.7393451854503</v>
       </c>
       <c r="E40" t="n">
         <v>141.676141212225</v>
@@ -30414,10 +30414,10 @@
         <v>25.22122397250159</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52441230575097</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O40" t="n">
-        <v>37.48281412028792</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P40" t="n">
         <v>58.48196179900678</v>
@@ -30481,16 +30481,16 @@
         <v>241.0121589565495</v>
       </c>
       <c r="J41" t="n">
-        <v>76.78688000567914</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="K41" t="n">
+        <v>6.735077083103292</v>
+      </c>
+      <c r="L41" t="n">
+        <v>199.2837844002075</v>
+      </c>
+      <c r="M41" t="n">
         <v>241.0121589565495</v>
-      </c>
-      <c r="L41" t="n">
-        <v>241.0121589565495</v>
-      </c>
-      <c r="M41" t="n">
-        <v>129.2319814776317</v>
       </c>
       <c r="N41" t="n">
         <v>241.0121589565495</v>
@@ -30542,7 +30542,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -30551,13 +30551,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>48.41687904368229</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H42" t="n">
         <v>125.7358448975026</v>
       </c>
       <c r="I42" t="n">
-        <v>107.364552236389</v>
+        <v>35.67179864541811</v>
       </c>
       <c r="J42" t="n">
         <v>52.47830382393113</v>
@@ -30581,25 +30581,25 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.873689458423161</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R42" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>214.9710572869065</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280716788486</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30615,13 +30615,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>177.6169206649681</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
-        <v>231.0234897288755</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
@@ -30633,7 +30633,7 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H43" t="n">
-        <v>165.824644867158</v>
+        <v>205.5207277564185</v>
       </c>
       <c r="I43" t="n">
         <v>164.8538042427314</v>
@@ -30651,10 +30651,10 @@
         <v>25.22122397250159</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52441230575097</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O43" t="n">
-        <v>37.48281412028792</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P43" t="n">
         <v>58.48196179900678</v>
@@ -30669,7 +30669,7 @@
         <v>235.4385289329965</v>
       </c>
       <c r="T43" t="n">
-        <v>241.0121589565495</v>
+        <v>223.761677253872</v>
       </c>
       <c r="U43" t="n">
         <v>241.0121589565495</v>
@@ -30721,34 +30721,34 @@
         <v>241.0121589565495</v>
       </c>
       <c r="K44" t="n">
-        <v>6.735077083103285</v>
+        <v>6.735077083103292</v>
       </c>
       <c r="L44" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="M44" t="n">
-        <v>36.43810333467316</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="N44" t="n">
-        <v>241.0121589565495</v>
+        <v>32.88917023239196</v>
       </c>
       <c r="O44" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="P44" t="n">
+        <v>15.10088611163706</v>
+      </c>
+      <c r="Q44" t="n">
         <v>241.0121589565495</v>
       </c>
-      <c r="Q44" t="n">
-        <v>89.71843090037106</v>
-      </c>
       <c r="R44" t="n">
-        <v>194.8854391524908</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="S44" t="n">
-        <v>227.518407079678</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4661527464647</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="U44" t="n">
         <v>241.0121589565495</v>
@@ -30779,13 +30779,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7446376404189</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.873689458423161</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R45" t="n">
         <v>134.7218599774646</v>
@@ -30827,19 +30827,19 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U45" t="n">
-        <v>127.7749702371954</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>130.4657033464097</v>
       </c>
       <c r="W45" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30852,13 +30852,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>241.0121589565495</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>166.4571809719723</v>
+        <v>187.8165174154431</v>
       </c>
       <c r="D46" t="n">
-        <v>184.8787331399715</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
         <v>141.676141212225</v>
@@ -30873,7 +30873,7 @@
         <v>165.824644867158</v>
       </c>
       <c r="I46" t="n">
-        <v>164.8538042427314</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J46" t="n">
         <v>120.241573402485</v>
@@ -30888,10 +30888,10 @@
         <v>25.22122397250159</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52441230575097</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O46" t="n">
-        <v>37.48281412028792</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P46" t="n">
         <v>58.48196179900678</v>
@@ -30903,7 +30903,7 @@
         <v>203.4312113734075</v>
       </c>
       <c r="S46" t="n">
-        <v>235.4385289329965</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="T46" t="n">
         <v>223.761677253872</v>
@@ -31753,7 +31753,7 @@
         <v>0.406657145293737</v>
       </c>
       <c r="H11" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I11" t="n">
         <v>15.67764959393681</v>
@@ -31762,25 +31762,25 @@
         <v>34.51451688537434</v>
       </c>
       <c r="K11" t="n">
-        <v>51.72831384565824</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L11" t="n">
-        <v>64.17354745594146</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M11" t="n">
-        <v>71.40543646355896</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N11" t="n">
-        <v>72.56085107762479</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O11" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P11" t="n">
         <v>58.47780581467104</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R11" t="n">
         <v>25.54467690305773</v>
@@ -31792,7 +31792,7 @@
         <v>1.780141653523335</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,34 +31832,34 @@
         <v>0.2175807546729652</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I12" t="n">
-        <v>7.49126721132797</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J12" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13452037190597</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24269850914537</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N12" t="n">
         <v>56.58912794452704</v>
       </c>
       <c r="O12" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P12" t="n">
-        <v>41.54838112698053</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R12" t="n">
         <v>13.50909282083551</v>
@@ -31868,7 +31868,7 @@
         <v>4.041467087894768</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8770031295809428</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U12" t="n">
         <v>0.01431452333374772</v>
@@ -31914,7 +31914,7 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I13" t="n">
-        <v>5.485638227248053</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J13" t="n">
         <v>12.89655637645347</v>
@@ -31926,7 +31926,7 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N13" t="n">
         <v>27.91407142662228</v>
@@ -31941,16 +31941,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R13" t="n">
-        <v>8.201924628769303</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S13" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7793984180189188</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>0.406657145293737</v>
       </c>
       <c r="H14" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I14" t="n">
         <v>15.67764959393681</v>
@@ -31999,25 +31999,25 @@
         <v>34.51451688537434</v>
       </c>
       <c r="K14" t="n">
-        <v>51.72831384565824</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L14" t="n">
-        <v>64.17354745594146</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M14" t="n">
-        <v>71.40543646355896</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N14" t="n">
-        <v>72.56085107762479</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O14" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P14" t="n">
         <v>58.47780581467104</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R14" t="n">
         <v>25.54467690305773</v>
@@ -32029,7 +32029,7 @@
         <v>1.780141653523335</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,34 +32069,34 @@
         <v>0.2175807546729652</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I15" t="n">
-        <v>7.49126721132797</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J15" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13452037190597</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24269850914537</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N15" t="n">
         <v>56.58912794452704</v>
       </c>
       <c r="O15" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P15" t="n">
-        <v>41.54838112698053</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R15" t="n">
         <v>13.50909282083551</v>
@@ -32105,7 +32105,7 @@
         <v>4.041467087894768</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8770031295809428</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U15" t="n">
         <v>0.01431452333374772</v>
@@ -32151,7 +32151,7 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I16" t="n">
-        <v>5.485638227248053</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J16" t="n">
         <v>12.89655637645347</v>
@@ -32163,7 +32163,7 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N16" t="n">
         <v>27.91407142662228</v>
@@ -32178,16 +32178,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R16" t="n">
-        <v>8.201924628769303</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S16" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7793984180189188</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>0.406657145293737</v>
       </c>
       <c r="H17" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I17" t="n">
         <v>15.67764959393681</v>
@@ -32236,25 +32236,25 @@
         <v>34.51451688537434</v>
       </c>
       <c r="K17" t="n">
-        <v>51.72831384565824</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L17" t="n">
-        <v>64.17354745594146</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M17" t="n">
-        <v>71.40543646355896</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N17" t="n">
-        <v>72.56085107762479</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O17" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P17" t="n">
         <v>58.47780581467104</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R17" t="n">
         <v>25.54467690305773</v>
@@ -32266,7 +32266,7 @@
         <v>1.780141653523335</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,34 +32306,34 @@
         <v>0.2175807546729652</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I18" t="n">
-        <v>7.49126721132797</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J18" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13452037190597</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24269850914537</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N18" t="n">
         <v>56.58912794452704</v>
       </c>
       <c r="O18" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P18" t="n">
-        <v>41.54838112698053</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R18" t="n">
         <v>13.50909282083551</v>
@@ -32342,7 +32342,7 @@
         <v>4.041467087894768</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8770031295809428</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431452333374772</v>
@@ -32388,7 +32388,7 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I19" t="n">
-        <v>5.485638227248053</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J19" t="n">
         <v>12.89655637645347</v>
@@ -32400,7 +32400,7 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N19" t="n">
         <v>27.91407142662228</v>
@@ -32415,16 +32415,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R19" t="n">
-        <v>8.201924628769303</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S19" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7793984180189188</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>0.406657145293737</v>
       </c>
       <c r="H20" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I20" t="n">
         <v>15.67764959393681</v>
@@ -32473,25 +32473,25 @@
         <v>34.51451688537434</v>
       </c>
       <c r="K20" t="n">
-        <v>51.72831384565824</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L20" t="n">
-        <v>64.17354745594146</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M20" t="n">
-        <v>71.40543646355896</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N20" t="n">
-        <v>72.56085107762479</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O20" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P20" t="n">
         <v>58.47780581467104</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R20" t="n">
         <v>25.54467690305773</v>
@@ -32503,7 +32503,7 @@
         <v>1.780141653523335</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,34 +32543,34 @@
         <v>0.2175807546729652</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I21" t="n">
-        <v>7.49126721132797</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J21" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13452037190597</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24269850914537</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N21" t="n">
         <v>56.58912794452704</v>
       </c>
       <c r="O21" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P21" t="n">
-        <v>41.54838112698053</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R21" t="n">
         <v>13.50909282083551</v>
@@ -32579,7 +32579,7 @@
         <v>4.041467087894768</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8770031295809428</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431452333374772</v>
@@ -32625,7 +32625,7 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I22" t="n">
-        <v>5.485638227248053</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J22" t="n">
         <v>12.89655637645347</v>
@@ -32637,7 +32637,7 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N22" t="n">
         <v>27.91407142662228</v>
@@ -32652,16 +32652,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R22" t="n">
-        <v>8.201924628769303</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S22" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7793984180189188</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>0.406657145293737</v>
       </c>
       <c r="H23" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I23" t="n">
         <v>15.67764959393681</v>
@@ -32710,25 +32710,25 @@
         <v>34.51451688537434</v>
       </c>
       <c r="K23" t="n">
-        <v>51.72831384565824</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L23" t="n">
-        <v>64.17354745594146</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M23" t="n">
-        <v>71.40543646355896</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N23" t="n">
-        <v>72.56085107762479</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O23" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P23" t="n">
         <v>58.47780581467104</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R23" t="n">
         <v>25.54467690305773</v>
@@ -32740,7 +32740,7 @@
         <v>1.780141653523335</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,34 +32780,34 @@
         <v>0.2175807546729652</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I24" t="n">
-        <v>7.49126721132797</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J24" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13452037190597</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24269850914537</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N24" t="n">
         <v>56.58912794452704</v>
       </c>
       <c r="O24" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P24" t="n">
-        <v>41.54838112698053</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R24" t="n">
         <v>13.50909282083551</v>
@@ -32816,7 +32816,7 @@
         <v>4.041467087894768</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8770031295809428</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431452333374772</v>
@@ -32862,7 +32862,7 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I25" t="n">
-        <v>5.485638227248053</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J25" t="n">
         <v>12.89655637645347</v>
@@ -32874,7 +32874,7 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N25" t="n">
         <v>27.91407142662228</v>
@@ -32889,16 +32889,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R25" t="n">
-        <v>8.201924628769303</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S25" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7793984180189188</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>0.406657145293737</v>
       </c>
       <c r="H26" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I26" t="n">
         <v>15.67764959393681</v>
@@ -32947,25 +32947,25 @@
         <v>34.51451688537434</v>
       </c>
       <c r="K26" t="n">
-        <v>51.72831384565824</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L26" t="n">
-        <v>64.17354745594146</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M26" t="n">
-        <v>71.40543646355896</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N26" t="n">
-        <v>72.56085107762479</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O26" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P26" t="n">
         <v>58.47780581467104</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R26" t="n">
         <v>25.54467690305773</v>
@@ -32977,7 +32977,7 @@
         <v>1.780141653523335</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,34 +33017,34 @@
         <v>0.2175807546729652</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I27" t="n">
-        <v>7.49126721132797</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J27" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13452037190597</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24269850914537</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N27" t="n">
         <v>56.58912794452704</v>
       </c>
       <c r="O27" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P27" t="n">
-        <v>41.54838112698053</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R27" t="n">
         <v>13.50909282083551</v>
@@ -33053,7 +33053,7 @@
         <v>4.041467087894768</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8770031295809428</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431452333374772</v>
@@ -33099,7 +33099,7 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I28" t="n">
-        <v>5.485638227248053</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J28" t="n">
         <v>12.89655637645347</v>
@@ -33111,7 +33111,7 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N28" t="n">
         <v>27.91407142662228</v>
@@ -33126,16 +33126,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R28" t="n">
-        <v>8.201924628769303</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S28" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7793984180189188</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>0.406657145293737</v>
       </c>
       <c r="H29" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I29" t="n">
         <v>15.67764959393681</v>
@@ -33184,25 +33184,25 @@
         <v>34.51451688537434</v>
       </c>
       <c r="K29" t="n">
-        <v>51.72831384565824</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L29" t="n">
-        <v>64.17354745594146</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M29" t="n">
-        <v>71.40543646355896</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N29" t="n">
-        <v>72.56085107762479</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O29" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P29" t="n">
         <v>58.47780581467104</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R29" t="n">
         <v>25.54467690305773</v>
@@ -33214,7 +33214,7 @@
         <v>1.780141653523335</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,34 +33254,34 @@
         <v>0.2175807546729652</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I30" t="n">
-        <v>7.49126721132797</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J30" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13452037190597</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24269850914537</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N30" t="n">
         <v>56.58912794452704</v>
       </c>
       <c r="O30" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P30" t="n">
-        <v>41.54838112698053</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R30" t="n">
         <v>13.50909282083551</v>
@@ -33290,7 +33290,7 @@
         <v>4.041467087894768</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8770031295809428</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U30" t="n">
         <v>0.01431452333374772</v>
@@ -33336,7 +33336,7 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I31" t="n">
-        <v>5.485638227248053</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J31" t="n">
         <v>12.89655637645347</v>
@@ -33348,7 +33348,7 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N31" t="n">
         <v>27.91407142662228</v>
@@ -33363,16 +33363,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R31" t="n">
-        <v>8.201924628769303</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S31" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7793984180189188</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>0.406657145293737</v>
       </c>
       <c r="H32" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I32" t="n">
         <v>15.67764959393681</v>
@@ -33421,25 +33421,25 @@
         <v>34.51451688537434</v>
       </c>
       <c r="K32" t="n">
-        <v>51.72831384565824</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L32" t="n">
-        <v>64.17354745594146</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M32" t="n">
-        <v>71.40543646355896</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N32" t="n">
-        <v>72.56085107762479</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O32" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P32" t="n">
         <v>58.47780581467104</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R32" t="n">
         <v>25.54467690305773</v>
@@ -33451,7 +33451,7 @@
         <v>1.780141653523335</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,34 +33491,34 @@
         <v>0.2175807546729652</v>
       </c>
       <c r="H33" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I33" t="n">
-        <v>7.49126721132797</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J33" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13452037190597</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24269850914537</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N33" t="n">
         <v>56.58912794452704</v>
       </c>
       <c r="O33" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P33" t="n">
-        <v>41.54838112698053</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R33" t="n">
         <v>13.50909282083551</v>
@@ -33527,7 +33527,7 @@
         <v>4.041467087894768</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8770031295809428</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U33" t="n">
         <v>0.01431452333374772</v>
@@ -33573,7 +33573,7 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I34" t="n">
-        <v>5.485638227248053</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J34" t="n">
         <v>12.89655637645347</v>
@@ -33585,7 +33585,7 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N34" t="n">
         <v>27.91407142662228</v>
@@ -33600,16 +33600,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R34" t="n">
-        <v>8.201924628769303</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S34" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7793984180189188</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>0.406657145293737</v>
       </c>
       <c r="H35" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I35" t="n">
         <v>15.67764959393681</v>
@@ -33658,25 +33658,25 @@
         <v>34.51451688537434</v>
       </c>
       <c r="K35" t="n">
-        <v>51.72831384565824</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L35" t="n">
-        <v>64.17354745594146</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M35" t="n">
-        <v>71.40543646355896</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N35" t="n">
-        <v>72.56085107762479</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O35" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P35" t="n">
         <v>58.47780581467104</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R35" t="n">
         <v>25.54467690305773</v>
@@ -33688,7 +33688,7 @@
         <v>1.780141653523335</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,34 +33728,34 @@
         <v>0.2175807546729652</v>
       </c>
       <c r="H36" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I36" t="n">
-        <v>7.49126721132797</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J36" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13452037190597</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24269850914537</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N36" t="n">
         <v>56.58912794452704</v>
       </c>
       <c r="O36" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P36" t="n">
-        <v>41.54838112698053</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R36" t="n">
         <v>13.50909282083551</v>
@@ -33764,7 +33764,7 @@
         <v>4.041467087894768</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8770031295809428</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U36" t="n">
         <v>0.01431452333374772</v>
@@ -33810,7 +33810,7 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I37" t="n">
-        <v>5.485638227248053</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J37" t="n">
         <v>12.89655637645347</v>
@@ -33822,7 +33822,7 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N37" t="n">
         <v>27.91407142662228</v>
@@ -33837,16 +33837,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R37" t="n">
-        <v>8.201924628769303</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S37" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7793984180189188</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>0.406657145293737</v>
       </c>
       <c r="H38" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I38" t="n">
         <v>15.67764959393681</v>
@@ -33895,25 +33895,25 @@
         <v>34.51451688537434</v>
       </c>
       <c r="K38" t="n">
-        <v>51.72831384565824</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L38" t="n">
-        <v>64.17354745594146</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M38" t="n">
-        <v>71.40543646355896</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N38" t="n">
-        <v>72.56085107762479</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O38" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P38" t="n">
         <v>58.47780581467104</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R38" t="n">
         <v>25.54467690305773</v>
@@ -33925,7 +33925,7 @@
         <v>1.780141653523335</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,34 +33965,34 @@
         <v>0.2175807546729652</v>
       </c>
       <c r="H39" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I39" t="n">
-        <v>7.49126721132797</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J39" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K39" t="n">
-        <v>35.13452037190597</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24269850914537</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N39" t="n">
         <v>56.58912794452704</v>
       </c>
       <c r="O39" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P39" t="n">
-        <v>41.54838112698053</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R39" t="n">
         <v>13.50909282083551</v>
@@ -34001,7 +34001,7 @@
         <v>4.041467087894768</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8770031295809428</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U39" t="n">
         <v>0.01431452333374772</v>
@@ -34047,7 +34047,7 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I40" t="n">
-        <v>5.485638227248053</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J40" t="n">
         <v>12.89655637645347</v>
@@ -34059,7 +34059,7 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N40" t="n">
         <v>27.91407142662228</v>
@@ -34074,16 +34074,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R40" t="n">
-        <v>8.201924628769303</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S40" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7793984180189188</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>0.406657145293737</v>
       </c>
       <c r="H41" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I41" t="n">
         <v>15.67764959393681</v>
@@ -34132,25 +34132,25 @@
         <v>34.51451688537434</v>
       </c>
       <c r="K41" t="n">
-        <v>51.72831384565824</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L41" t="n">
-        <v>64.17354745594146</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M41" t="n">
-        <v>71.40543646355896</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N41" t="n">
-        <v>72.56085107762479</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O41" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P41" t="n">
         <v>58.47780581467104</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R41" t="n">
         <v>25.54467690305773</v>
@@ -34162,7 +34162,7 @@
         <v>1.780141653523335</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,34 +34202,34 @@
         <v>0.2175807546729652</v>
       </c>
       <c r="H42" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I42" t="n">
-        <v>7.49126721132797</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J42" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13452037190597</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24269850914537</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N42" t="n">
         <v>56.58912794452704</v>
       </c>
       <c r="O42" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P42" t="n">
-        <v>41.54838112698053</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R42" t="n">
         <v>13.50909282083551</v>
@@ -34238,7 +34238,7 @@
         <v>4.041467087894768</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8770031295809428</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U42" t="n">
         <v>0.01431452333374772</v>
@@ -34284,7 +34284,7 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I43" t="n">
-        <v>5.485638227248053</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J43" t="n">
         <v>12.89655637645347</v>
@@ -34296,7 +34296,7 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N43" t="n">
         <v>27.91407142662228</v>
@@ -34311,16 +34311,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R43" t="n">
-        <v>8.201924628769303</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S43" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7793984180189188</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>0.406657145293737</v>
       </c>
       <c r="H44" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I44" t="n">
         <v>15.67764959393681</v>
@@ -34369,25 +34369,25 @@
         <v>34.51451688537434</v>
       </c>
       <c r="K44" t="n">
-        <v>51.72831384565824</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L44" t="n">
-        <v>64.17354745594146</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M44" t="n">
-        <v>71.40543646355896</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N44" t="n">
-        <v>72.56085107762479</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O44" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P44" t="n">
         <v>58.47780581467104</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R44" t="n">
         <v>25.54467690305773</v>
@@ -34399,7 +34399,7 @@
         <v>1.780141653523335</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,34 +34439,34 @@
         <v>0.2175807546729652</v>
       </c>
       <c r="H45" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I45" t="n">
-        <v>7.49126721132797</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J45" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13452037190597</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24269850914537</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N45" t="n">
         <v>56.58912794452704</v>
       </c>
       <c r="O45" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P45" t="n">
-        <v>41.54838112698053</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R45" t="n">
         <v>13.50909282083551</v>
@@ -34475,7 +34475,7 @@
         <v>4.041467087894768</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8770031295809428</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U45" t="n">
         <v>0.01431452333374772</v>
@@ -34521,7 +34521,7 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I46" t="n">
-        <v>5.485638227248053</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J46" t="n">
         <v>12.89655637645347</v>
@@ -34533,7 +34533,7 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N46" t="n">
         <v>27.91407142662228</v>
@@ -34548,16 +34548,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R46" t="n">
-        <v>8.201924628769303</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S46" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7793984180189188</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3.206918035433006</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="M9" t="n">
-        <v>3.516869431124803</v>
+        <v>3.374773696533903</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1678556611008989</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>171.4066867664377</v>
       </c>
       <c r="L11" t="n">
-        <v>188.4860450762372</v>
+        <v>47.18298822124888</v>
       </c>
       <c r="M11" t="n">
-        <v>180.8704472953793</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N11" t="n">
-        <v>188.4860450762372</v>
+        <v>160.0510416067775</v>
       </c>
       <c r="O11" t="n">
-        <v>188.4860450762372</v>
+        <v>34.55585361291135</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>163.0408777379039</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>88.42333294916992</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L12" t="n">
         <v>118.5108989343404</v>
@@ -35541,52 +35541,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5248431845729726</v>
+        <v>0.5248431845728874</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>11.68458287756863</v>
       </c>
       <c r="D13" t="n">
-        <v>32.95911359883036</v>
+        <v>32.95911359883027</v>
       </c>
       <c r="E13" t="n">
-        <v>36.46562263731607</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>17.54677431500188</v>
+        <v>39.21488163109433</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.31711898238303</v>
       </c>
       <c r="I13" t="n">
-        <v>13.2879596068097</v>
+        <v>13.28795960680961</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>111.1085532649117</v>
+        <v>47.61196948451961</v>
       </c>
       <c r="L13" t="n">
-        <v>145.9858137434032</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>152.9205398770395</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>161.61735154379</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>140.6589497292531</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>50.92244958906439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,22 +35650,22 @@
         <v>171.4066867664377</v>
       </c>
       <c r="L14" t="n">
-        <v>47.18298822124889</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="M14" t="n">
-        <v>81.66780162964172</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N14" t="n">
+        <v>116.2820039755371</v>
+      </c>
+      <c r="O14" t="n">
         <v>188.4860450762372</v>
       </c>
-      <c r="O14" t="n">
-        <v>34.55585361291136</v>
-      </c>
       <c r="P14" t="n">
-        <v>163.0408777379039</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>59.98832947971004</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L15" t="n">
         <v>118.5108989343404</v>
@@ -35781,16 +35781,16 @@
         <v>0.5248431845728874</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11.68458287756863</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>32.95911359883027</v>
       </c>
       <c r="E16" t="n">
-        <v>36.46562263731599</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.21488163109433</v>
       </c>
       <c r="G16" t="n">
         <v>9.440961117302569</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>111.1085532649116</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -35814,13 +35814,13 @@
         <v>152.9205398770394</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>60.15577964077724</v>
       </c>
       <c r="O16" t="n">
-        <v>17.43932952476177</v>
+        <v>140.6589497292531</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6598020505342</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>50.92244958906439</v>
@@ -35887,34 +35887,34 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.18298822124889</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="M17" t="n">
-        <v>123.8086259491297</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N17" t="n">
-        <v>76.07772050874959</v>
+        <v>76.07772050874958</v>
       </c>
       <c r="O17" t="n">
         <v>188.4860450762372</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>66.69167316883151</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.93352136559014</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98577569880344</v>
+        <v>74.98577569880338</v>
       </c>
       <c r="U17" t="n">
-        <v>47.30138199368485</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L18" t="n">
         <v>118.5108989343404</v>
@@ -35972,7 +35972,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N18" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="O18" t="n">
         <v>133.0233611548194</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>56.4397694887186</v>
       </c>
       <c r="J20" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>27.22292172660767</v>
       </c>
       <c r="L20" t="n">
-        <v>54.7679589278257</v>
+        <v>47.18298822124888</v>
       </c>
       <c r="M20" t="n">
-        <v>81.66780162964172</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N20" t="n">
-        <v>76.07772050874959</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="O20" t="n">
-        <v>34.55585361291136</v>
+        <v>34.55585361291135</v>
       </c>
       <c r="P20" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34143840733898</v>
+        <v>38.3414384073391</v>
       </c>
       <c r="L21" t="n">
         <v>118.5108989343404</v>
@@ -36209,7 +36209,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N21" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="O21" t="n">
         <v>133.0233611548194</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>56.4397694887186</v>
       </c>
       <c r="J23" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762374</v>
       </c>
       <c r="K23" t="n">
-        <v>14.56011072551419</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.18298822124889</v>
+        <v>47.18298822124888</v>
       </c>
       <c r="M23" t="n">
-        <v>81.66780162964172</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N23" t="n">
-        <v>76.07772050874959</v>
+        <v>76.07772050874958</v>
       </c>
       <c r="O23" t="n">
-        <v>188.4860450762373</v>
+        <v>60.68683052957311</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>188.4860450762374</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5664892927773</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L24" t="n">
         <v>118.5108989343404</v>
@@ -36446,7 +36446,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762374</v>
       </c>
       <c r="O24" t="n">
         <v>133.0233611548194</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7011493464499</v>
+        <v>136.7011493464504</v>
       </c>
       <c r="K26" t="n">
         <v>206.7529522690257</v>
@@ -36610,13 +36610,13 @@
         <v>248.0438829650404</v>
       </c>
       <c r="P26" t="n">
-        <v>198.3871432404919</v>
+        <v>198.387143240492</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.7695984517579</v>
+        <v>123.769598451758</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60259019963817</v>
+        <v>18.60259019963819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L27" t="n">
         <v>118.5108989343404</v>
@@ -36726,10 +36726,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>35.87110868716093</v>
       </c>
       <c r="C28" t="n">
-        <v>47.03084838015664</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36744,13 +36744,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>47.66338448497103</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.63422510939765</v>
       </c>
       <c r="J28" t="n">
-        <v>93.24645594964394</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36762,10 +36762,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>44.60804060403096</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>148.0433956222438</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>136.7011493464499</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7529522690258</v>
+        <v>206.7529522690257</v>
       </c>
       <c r="L29" t="n">
         <v>260.6710175733779</v>
@@ -36841,7 +36841,7 @@
         <v>295.1558309817707</v>
       </c>
       <c r="N29" t="n">
-        <v>289.5657498608787</v>
+        <v>289.5657498608786</v>
       </c>
       <c r="O29" t="n">
         <v>248.0438829650404</v>
@@ -36853,7 +36853,7 @@
         <v>123.769598451758</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60259019963823</v>
+        <v>18.60259019963819</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L30" t="n">
         <v>118.5108989343404</v>
@@ -36966,22 +36966,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>47.03084838015667</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>68.30537910141831</v>
       </c>
       <c r="E31" t="n">
-        <v>71.81188813990406</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>74.5611471336824</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>38.51230966024468</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.66338448497109</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>117.2125019372274</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.6110338056705</v>
+        <v>137.6110338056704</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6628367282463</v>
+        <v>207.6628367282462</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5809020325985</v>
+        <v>261.5809020325984</v>
       </c>
       <c r="M32" t="n">
-        <v>296.0657154409913</v>
+        <v>273.9513733180979</v>
       </c>
       <c r="N32" t="n">
-        <v>290.4756343200992</v>
+        <v>290.4756343200991</v>
       </c>
       <c r="O32" t="n">
-        <v>248.953767424261</v>
+        <v>248.9537674242609</v>
       </c>
       <c r="P32" t="n">
         <v>199.2970276997125</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.5651407880851</v>
+        <v>124.6794829109785</v>
       </c>
       <c r="R32" t="n">
-        <v>19.51247465885879</v>
+        <v>19.51247465885873</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L33" t="n">
         <v>118.5108989343404</v>
@@ -37200,13 +37200,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.78099314638152</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>69.21526356063885</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37218,10 +37218,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.09253483828246377</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>49.54410956861819</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>189.176689838848</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37242,13 +37242,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>9.14554270544031</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>87.17859955087296</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>10.96670243794209</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2721944288227</v>
+        <v>155.8193176925469</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="L35" t="n">
-        <v>47.18298822124889</v>
+        <v>47.18298822124888</v>
       </c>
       <c r="M35" t="n">
-        <v>234.334762427895</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N35" t="n">
-        <v>260.4612548573207</v>
+        <v>76.07772050874958</v>
       </c>
       <c r="O35" t="n">
-        <v>34.55585361291136</v>
+        <v>34.55585361291135</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37330,13 +37330,13 @@
         <v>77.17363528201102</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>44.54066735482387</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>49.59292168803713</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>21.90852798291854</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L36" t="n">
         <v>118.5108989343404</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>35.55669493473962</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>35.55669493473962</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04691547795235</v>
+        <v>31.04691547795234</v>
       </c>
       <c r="J38" t="n">
-        <v>195.2721944288227</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>120.3060266267741</v>
+        <v>260.4612548573209</v>
       </c>
       <c r="L38" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573209</v>
       </c>
       <c r="M38" t="n">
-        <v>81.66780162964172</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N38" t="n">
-        <v>76.07772050874959</v>
+        <v>260.4612548573209</v>
       </c>
       <c r="O38" t="n">
-        <v>34.55585361291136</v>
+        <v>34.55585361291135</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3406435341308</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>77.17363528201102</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3.584833806943644</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59292168803713</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>21.90852798291854</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L39" t="n">
         <v>118.5108989343404</v>
@@ -37674,13 +37674,13 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
         <v>35.55669493473962</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>164.2252789508704</v>
       </c>
       <c r="K41" t="n">
-        <v>234.2770818734462</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>288.1951471777984</v>
+        <v>246.4667726214564</v>
       </c>
       <c r="M41" t="n">
-        <v>210.8997831072735</v>
+        <v>322.6799605861912</v>
       </c>
       <c r="N41" t="n">
         <v>317.0898794652991</v>
       </c>
       <c r="O41" t="n">
-        <v>34.55585361291136</v>
+        <v>34.55585361291135</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9112728449124</v>
+        <v>225.9112728449125</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12671980405867</v>
+        <v>46.12671980405872</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49375187687152</v>
+        <v>13.49375187687158</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54600621008477</v>
+        <v>18.54600621008483</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L42" t="n">
         <v>118.5108989343404</v>
@@ -37911,13 +37911,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>63.39523829158145</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>85.84083947816475</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>39.69608288926057</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37965,7 +37965,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>17.25048170267745</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.2252789508703</v>
+        <v>164.2252789508704</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38023,28 +38023,28 @@
         <v>288.1951471777984</v>
       </c>
       <c r="M44" t="n">
-        <v>118.1059049643149</v>
+        <v>322.6799605861912</v>
       </c>
       <c r="N44" t="n">
-        <v>317.0898794652991</v>
+        <v>108.9668907411415</v>
       </c>
       <c r="O44" t="n">
-        <v>275.5680125694608</v>
+        <v>275.5680125694609</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9112728449124</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>151.2937280561785</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>46.12671980405872</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.49375187687158</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.54600621008483</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L45" t="n">
         <v>118.5108989343404</v>
@@ -38148,13 +38148,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>63.39523829158139</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>21.3593364434708</v>
       </c>
       <c r="D46" t="n">
-        <v>39.69608288926081</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>76.15835471381817</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38199,7 +38199,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.573630023553065</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
